--- a/IT23442252/IT23442252.xlsx
+++ b/IT23442252/IT23442252.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://magicwoods-my.sharepoint.com/personal/showmikau_magicktech_com/Documents/Desktop/IT23442252/IT23442252/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="695" documentId="8_{0A568BBA-E62C-4AA7-AEF4-98302E27E4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{166CB3CA-B98E-415A-A850-46D00FE5BE5C}"/>
+  <xr:revisionPtr revIDLastSave="714" documentId="8_{0A568BBA-E62C-4AA7-AEF4-98302E27E4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EA8F1DA-593E-4B86-8600-96E0CAED77CF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="365">
   <si>
     <t>TC ID</t>
   </si>
@@ -1192,12 +1192,6 @@
     <t>Pos_FUN_0017</t>
   </si>
   <si>
-    <t xml:space="preserve">நிறைய வேலை இருக்கிறதால என்னால இண்டைக்கு கிளிநொச்சி வரமுடியா நான் வீகெண்ட்ல அங்க வாறன்  </t>
-  </si>
-  <si>
-    <t>Niraya velai irukirathala ennala indaiku varamudeya naan weekend anga varan</t>
-  </si>
-  <si>
     <t>Pos_FUN_0018</t>
   </si>
   <si>
@@ -1318,12 +1312,6 @@
     <t>அவன் முயன்றதால் வெற்றி வந்தது</t>
   </si>
   <si>
-    <t>Naalaiku exam iruku athukaga ready pannuren</t>
-  </si>
-  <si>
-    <t>நாளைக்கு எக்ஸாம் இருக்கு அதுக்காக ரெடி பண்ணுறேன்</t>
-  </si>
-  <si>
     <t>Avan eppa velai seithukondu irukkaan</t>
   </si>
   <si>
@@ -1354,24 +1342,12 @@
     <t>எனக்கு இண்டைக்கு சரியான வேலை இருக்கு</t>
   </si>
   <si>
-    <t>Nee thirumba varum varaikum naan inga wait pannuren</t>
-  </si>
-  <si>
-    <t>நீ திரும்ப வரும் வரைக்கும் நான் இங்க வெயிட் பண்ணுறேன்</t>
-  </si>
-  <si>
     <t>Nanga naalaiku koyiluku povom</t>
   </si>
   <si>
     <t>நாங்க நாளைக்கு கோயிலுக்கு போவோம்</t>
   </si>
   <si>
-    <t>Enaku udambu sari illaathathaala ennala office ku varamudiyaathu</t>
-  </si>
-  <si>
-    <t>எனக்கு உடம்பு சரி இல்லாததால என்னால ஆபீஸ் கு வரமுடியாது</t>
-  </si>
-  <si>
     <t>எனக்கு சாப்பாடு வேணாம்</t>
   </si>
   <si>
@@ -1690,15 +1666,9 @@
     <t>The preparation context and intended meaning are preserved.</t>
   </si>
   <si>
-    <t>English academic terms such as exam are handled appropriately.</t>
-  </si>
-  <si>
     <t>Tamil spelling and sentence flow are correct.</t>
   </si>
   <si>
-    <t>Mixed Tanglish + English</t>
-  </si>
-  <si>
     <t>Verifies that ongoing continuous actions are correctly converted from Tanglish to Tamil.</t>
   </si>
   <si>
@@ -2057,6 +2027,42 @@
   </si>
   <si>
     <t>Ensures preservation of causal relationship and correct verb forms.</t>
+  </si>
+  <si>
+    <t>நாளைக்கு நேர்காணல்  இருக்கு அதுக்காக தயார் பண்ணுறேன்</t>
+  </si>
+  <si>
+    <t>நாளைக்கு நேர்காணல் இருக்கு அதுக்காக தயார் பண்ணுறேன்</t>
+  </si>
+  <si>
+    <t>Naalaiku nerkaanal iruku athukaga thayar pannuren</t>
+  </si>
+  <si>
+    <t>Normal spelling and spacing</t>
+  </si>
+  <si>
+    <t>Combound Sentence</t>
+  </si>
+  <si>
+    <t>Nee thirumba varum varaikum naan inga kaathu irukken</t>
+  </si>
+  <si>
+    <t>நீ திரும்ப வரும் வரைக்கும் நான் இங்க காத்து இருக்கேன்</t>
+  </si>
+  <si>
+    <t>Enaku udambu sari illaathathaala ennala Aluvalagam kku varamudiyaathu</t>
+  </si>
+  <si>
+    <t>எனக்கு உடம்பு சரி இல்லாததால என்னால அலுவலகம் க்கு வரமுடியாது</t>
+  </si>
+  <si>
+    <t>Niraya velai irukirathala ennala indaiku varamudeya naan vaaraeruthi anga varan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">நிறைய வேலை இருக்கிறதால என்னால இண்டைக்கு கிளிநொச்சி வரமுடியா நான் வாரஇறுதி அங்க வாறன்  </t>
+  </si>
+  <si>
+    <t>Complex Sentence</t>
   </si>
 </sst>
 </file>
@@ -2384,6 +2390,18 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2396,6 +2414,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2405,31 +2429,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2450,6 +2456,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2717,8 +2727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I85" sqref="I85"/>
+    <sheetView tabSelected="1" topLeftCell="C87" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82:G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2773,2776 +2783,2968 @@
       <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="23" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>97</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="22"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="23"/>
       <c r="I3" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="22"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="22"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="11"/>
       <c r="J5" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="29">
         <v>2</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="D6" s="22" t="s">
+      <c r="C6" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="H6" s="22" t="s">
+      <c r="E6" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" s="23" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="22"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="10" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="29"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="22"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="10" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="29"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="22"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="11"/>
       <c r="J9" s="10" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="15">
+      <c r="A10" s="19">
         <v>3</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="D10" s="22" t="s">
+      <c r="C10" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="G10" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="H10" s="22" t="s">
+      <c r="E10" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="23" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="22"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="23"/>
       <c r="I11" s="10" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="22"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="23"/>
       <c r="I12" s="10" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="15"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="22"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="23"/>
       <c r="I13" s="11"/>
       <c r="J13" s="10" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="15">
+      <c r="A14" s="19">
         <v>4</v>
       </c>
-      <c r="B14" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="D14" s="22" t="s">
+      <c r="B14" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="G14" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="H14" s="22" t="s">
+      <c r="E14" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="23" t="s">
         <v>12</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="J14" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="19"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="19"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="10" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="15"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="15"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="10" t="s">
-        <v>228</v>
-      </c>
       <c r="J16" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="15"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="22"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="23"/>
       <c r="I17" s="11"/>
       <c r="J17" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="19">
+        <v>5</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="10" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="15">
-        <v>5</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>183</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>230</v>
-      </c>
       <c r="J18" s="10" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="15"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="22"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="23"/>
       <c r="I19" s="10" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="15"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="22"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="23"/>
       <c r="I20" s="10" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="15"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="22"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="23"/>
       <c r="I21" s="11"/>
       <c r="J21" s="10" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="15">
+      <c r="A22" s="19">
         <v>6</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="D22" s="22" t="s">
+      <c r="C22" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="F22" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="H22" s="22" t="s">
+      <c r="E22" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="H22" s="23" t="s">
         <v>12</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="15"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="22"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="23"/>
       <c r="I23" s="10" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="15"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="22"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="23"/>
       <c r="I24" s="10" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="15"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="22"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="23"/>
       <c r="I25" s="11"/>
       <c r="J25" s="10" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="15">
+      <c r="A26" s="19">
         <v>7</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>185</v>
-      </c>
-      <c r="D26" s="22" t="s">
+      <c r="C26" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D26" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="H26" s="22" t="s">
+      <c r="E26" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="H26" s="23" t="s">
         <v>12</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="15"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="22"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="23"/>
       <c r="I27" s="10" t="s">
-        <v>240</v>
+        <v>356</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>242</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="15"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="22"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="23"/>
       <c r="I28" s="10" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="15"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="22"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="23"/>
       <c r="I29" s="11"/>
       <c r="J29" s="10" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="15">
+      <c r="A30" s="19">
         <v>8</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="D30" s="22" t="s">
+      <c r="C30" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="D30" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="G30" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="H30" s="22" t="s">
+      <c r="E30" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="H30" s="23" t="s">
         <v>12</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="15"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="22"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="23"/>
       <c r="I31" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="15"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="22"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="23"/>
       <c r="I32" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="15"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="22"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="23"/>
       <c r="I33" s="11"/>
       <c r="J33" s="10" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="15">
+      <c r="A34" s="19">
         <v>9</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="22" t="s">
-        <v>187</v>
-      </c>
-      <c r="D34" s="22" t="s">
+      <c r="C34" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="D34" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="F34" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="H34" s="22" t="s">
+      <c r="E34" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="G34" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="H34" s="23" t="s">
         <v>12</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="15"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="22"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="23"/>
       <c r="I35" s="10" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="15"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="22"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="23"/>
       <c r="I36" s="10" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="15"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="22"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="23"/>
       <c r="I37" s="11"/>
       <c r="J37" s="10" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="15">
+      <c r="A38" s="19">
         <v>10</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="D38" s="22" t="s">
+      <c r="C38" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D38" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="F38" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="G38" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="H38" s="22" t="s">
+      <c r="E38" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="G38" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="H38" s="23" t="s">
         <v>12</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="15"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="22"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="23"/>
       <c r="I39" s="10" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="15"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="22"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="23"/>
       <c r="I40" s="10" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="15"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="22"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="23"/>
       <c r="I41" s="11"/>
       <c r="J41" s="10" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="15">
+      <c r="A42" s="19">
         <v>11</v>
       </c>
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="D42" s="22" t="s">
+      <c r="C42" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D42" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="F42" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="G42" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="H42" s="22" t="s">
+      <c r="E42" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="H42" s="23" t="s">
         <v>12</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="15"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="22"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="23"/>
       <c r="I43" s="10" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="15"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="22"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="23"/>
       <c r="I44" s="10" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="15"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="22"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="23"/>
       <c r="I45" s="11"/>
       <c r="J45" s="10" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="15">
+      <c r="A46" s="19">
         <v>12</v>
       </c>
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="D46" s="22" t="s">
+      <c r="C46" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="D46" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E46" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="F46" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="G46" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="H46" s="22" t="s">
+      <c r="E46" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F46" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G46" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="H46" s="23" t="s">
         <v>12</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="15"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="22"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="23"/>
       <c r="I47" s="10" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="15"/>
-      <c r="B48" s="27"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="22"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="23"/>
       <c r="I48" s="10" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="15"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="22"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="23"/>
       <c r="I49" s="11"/>
       <c r="J49" s="10" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="15">
+      <c r="A50" s="19">
         <v>13</v>
       </c>
-      <c r="B50" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C50" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="D50" s="22" t="s">
+      <c r="B50" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="D50" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E50" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="F50" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="G50" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="H50" s="22" t="s">
+      <c r="E50" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="F50" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="G50" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="H50" s="23" t="s">
         <v>12</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="15"/>
-      <c r="B51" s="27"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="22"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="23"/>
       <c r="I51" s="10" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>246</v>
+        <v>357</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="15"/>
-      <c r="B52" s="27"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="22"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="23"/>
       <c r="I52" s="10" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="15"/>
-      <c r="B53" s="27"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="22"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="23"/>
       <c r="I53" s="11"/>
       <c r="J53" s="10" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="15">
+      <c r="A54" s="19">
         <v>14</v>
       </c>
-      <c r="B54" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C54" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="D54" s="22" t="s">
+      <c r="B54" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="D54" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="F54" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="G54" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="H54" s="22" t="s">
+      <c r="E54" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="F54" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="G54" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="H54" s="23" t="s">
         <v>12</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="15"/>
-      <c r="B55" s="27"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="22"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="23"/>
       <c r="I55" s="10" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="15"/>
-      <c r="B56" s="27"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="22"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="23"/>
       <c r="I56" s="10" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="15"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="22"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="23"/>
       <c r="I57" s="11"/>
       <c r="J57" s="10" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="15">
+      <c r="A58" s="19">
         <v>15</v>
       </c>
-      <c r="B58" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58" s="22" t="s">
-        <v>193</v>
-      </c>
-      <c r="D58" s="22" t="s">
+      <c r="B58" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="D58" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E58" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="F58" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="G58" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="H58" s="22" t="s">
+      <c r="E58" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="F58" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="G58" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="H58" s="23" t="s">
         <v>12</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="15"/>
-      <c r="B59" s="27"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="22"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="23"/>
       <c r="I59" s="10" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>246</v>
+        <v>357</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="15"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="22"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="23"/>
       <c r="I60" s="10" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="15"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="22"/>
+      <c r="A61" s="19"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="23"/>
       <c r="I61" s="11"/>
       <c r="J61" s="10" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="15">
+      <c r="A62" s="19">
         <v>16</v>
       </c>
-      <c r="B62" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="C62" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="D62" s="22" t="s">
+      <c r="B62" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="D62" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="F62" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="G62" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="H62" s="22" t="s">
+      <c r="E62" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F62" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="G62" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="H62" s="23" t="s">
         <v>12</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="15"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="22"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="23"/>
       <c r="I63" s="10" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="15"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="22"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="23"/>
       <c r="I64" s="10" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="15"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="22"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="23"/>
       <c r="I65" s="11"/>
       <c r="J65" s="10" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="15">
+      <c r="A66" s="19">
         <v>17</v>
       </c>
-      <c r="B66" s="27" t="s">
+      <c r="B66" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="C66" s="22" t="s">
-        <v>195</v>
-      </c>
-      <c r="D66" s="22" t="s">
+      <c r="C66" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D66" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E66" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="F66" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="G66" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="H66" s="22" t="s">
+      <c r="E66" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F66" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="G66" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="H66" s="23" t="s">
         <v>12</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="15"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="22"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="23"/>
       <c r="I67" s="10" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="15"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="22"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="23"/>
       <c r="I68" s="10" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="15"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="22"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="23"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="23"/>
       <c r="I69" s="11"/>
       <c r="J69" s="10" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="15">
+      <c r="A70" s="19">
         <v>18</v>
       </c>
-      <c r="B70" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C70" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="D70" s="19" t="s">
+      <c r="B70" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="D70" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E70" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="F70" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="G70" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="H70" s="19" t="s">
+      <c r="E70" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G70" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="H70" s="25" t="s">
         <v>12</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="15"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="20"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="26"/>
       <c r="I71" s="10" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="15"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="20"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="26"/>
       <c r="I72" s="10" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="15"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="21"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="27"/>
       <c r="I73" s="11"/>
       <c r="J73" s="10" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="15">
+      <c r="A74" s="19">
         <v>19</v>
       </c>
-      <c r="B74" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="D74" s="19" t="s">
+      <c r="B74" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D74" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E74" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="F74" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="G74" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="H74" s="19" t="s">
+      <c r="E74" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G74" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="H74" s="25" t="s">
         <v>12</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="15"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="20"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="20"/>
+      <c r="A75" s="19"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="26"/>
       <c r="I75" s="10" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="J75" s="10" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="15"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="20"/>
+      <c r="A76" s="19"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="26"/>
       <c r="I76" s="10" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="15"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="21"/>
+      <c r="A77" s="19"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="27"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="27"/>
       <c r="I77" s="11"/>
       <c r="J77" s="10" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="15">
+      <c r="A78" s="19">
         <v>20</v>
       </c>
-      <c r="B78" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C78" s="19" t="s">
-        <v>198</v>
-      </c>
-      <c r="D78" s="19" t="s">
+      <c r="B78" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="D78" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E78" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="F78" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="G78" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="H78" s="19" t="s">
+      <c r="E78" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="F78" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="G78" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="H78" s="25" t="s">
         <v>12</v>
       </c>
       <c r="I78" s="10" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="15"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="20"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="26"/>
       <c r="I79" s="10" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="J79" s="10" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="15"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="20"/>
+      <c r="A80" s="19"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="26"/>
       <c r="I80" s="10" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="J80" s="10" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="15"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="21"/>
+      <c r="A81" s="19"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="27"/>
       <c r="I81" s="11"/>
       <c r="J81" s="10" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="15">
+      <c r="A82" s="19">
         <v>21</v>
       </c>
-      <c r="B82" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C82" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="D82" s="19" t="s">
+      <c r="B82" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C82" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="D82" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E82" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="F82" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="G82" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="H82" s="19" t="s">
+      <c r="E82" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="F82" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="G82" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="H82" s="25" t="s">
         <v>12</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="J82" s="10" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="15"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="20"/>
+      <c r="A83" s="19"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="26"/>
       <c r="I83" s="10" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="J83" s="10" t="s">
-        <v>246</v>
+        <v>364</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="15"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="20"/>
-      <c r="D84" s="20"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="20"/>
+      <c r="A84" s="19"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="26"/>
       <c r="I84" s="10" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="J84" s="10" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="15"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="21"/>
+      <c r="A85" s="19"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="27"/>
       <c r="I85" s="11"/>
       <c r="J85" s="10" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="15">
+      <c r="A86" s="19">
         <v>22</v>
       </c>
-      <c r="B86" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C86" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="D86" s="19" t="s">
+      <c r="B86" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C86" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="D86" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E86" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="F86" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="G86" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="H86" s="19" t="s">
+      <c r="E86" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F86" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G86" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="H86" s="25" t="s">
         <v>12</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="15"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="20"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24"/>
-      <c r="H87" s="20"/>
+      <c r="A87" s="19"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="26"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="26"/>
       <c r="I87" s="10" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="J87" s="10" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="15"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="20"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="20"/>
+      <c r="A88" s="19"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="26"/>
+      <c r="D88" s="26"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="26"/>
       <c r="I88" s="10" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="J88" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="15"/>
-      <c r="B89" s="18"/>
-      <c r="C89" s="21"/>
-      <c r="D89" s="21"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="25"/>
-      <c r="H89" s="21"/>
+      <c r="A89" s="19"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="27"/>
       <c r="I89" s="11"/>
       <c r="J89" s="10" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="15">
+      <c r="A90" s="19">
         <v>23</v>
       </c>
-      <c r="B90" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C90" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="D90" s="19" t="s">
+      <c r="B90" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C90" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="D90" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E90" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="F90" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="G90" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="H90" s="19" t="s">
+      <c r="E90" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F90" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G90" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="H90" s="25" t="s">
         <v>12</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="J90" s="10" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="15"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="20"/>
+      <c r="A91" s="19"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="26"/>
+      <c r="D91" s="26"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="26"/>
       <c r="I91" s="10" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="J91" s="10" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="15"/>
-      <c r="B92" s="17"/>
-      <c r="C92" s="20"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="20"/>
+      <c r="A92" s="19"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="26"/>
+      <c r="D92" s="26"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="26"/>
       <c r="I92" s="10" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="15"/>
-      <c r="B93" s="18"/>
-      <c r="C93" s="21"/>
-      <c r="D93" s="21"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="21"/>
+      <c r="A93" s="19"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="27"/>
+      <c r="D93" s="27"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="27"/>
       <c r="I93" s="11"/>
       <c r="J93" s="10" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="15">
+      <c r="A94" s="19">
         <v>24</v>
       </c>
-      <c r="B94" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C94" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="D94" s="19" t="s">
+      <c r="B94" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C94" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="D94" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E94" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="F94" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="G94" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="H94" s="19" t="s">
+      <c r="E94" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F94" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G94" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="H94" s="25" t="s">
         <v>12</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="J94" s="10" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="15"/>
-      <c r="B95" s="17"/>
-      <c r="C95" s="20"/>
-      <c r="D95" s="20"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="20"/>
+      <c r="A95" s="19"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="26"/>
+      <c r="D95" s="26"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="26"/>
       <c r="I95" s="10" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="J95" s="10" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="15"/>
-      <c r="B96" s="17"/>
-      <c r="C96" s="20"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="20"/>
+      <c r="A96" s="19"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="26"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="26"/>
       <c r="I96" s="10" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="J96" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="15"/>
-      <c r="B97" s="18"/>
-      <c r="C97" s="21"/>
-      <c r="D97" s="21"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="21"/>
+      <c r="A97" s="19"/>
+      <c r="B97" s="22"/>
+      <c r="C97" s="27"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="27"/>
       <c r="I97" s="11"/>
       <c r="J97" s="10" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="15">
+      <c r="A98" s="19">
         <v>25</v>
       </c>
-      <c r="B98" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C98" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="D98" s="19" t="s">
+      <c r="B98" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C98" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="D98" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E98" s="23" t="s">
-        <v>216</v>
-      </c>
-      <c r="F98" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="G98" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="H98" s="19" t="s">
-        <v>105</v>
+      <c r="E98" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="F98" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="G98" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="H98" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="I98" s="10" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="J98" s="10" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="15"/>
-      <c r="B99" s="17"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="20"/>
+      <c r="A99" s="19"/>
+      <c r="B99" s="21"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="26"/>
       <c r="I99" s="10" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="J99" s="10" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="15"/>
-      <c r="B100" s="17"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="20"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="24"/>
-      <c r="H100" s="20"/>
+      <c r="A100" s="19"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="26"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="26"/>
       <c r="I100" s="10" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="J100" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="15"/>
-      <c r="B101" s="18"/>
-      <c r="C101" s="21"/>
-      <c r="D101" s="21"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="25"/>
-      <c r="G101" s="25"/>
-      <c r="H101" s="21"/>
+      <c r="A101" s="19"/>
+      <c r="B101" s="22"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="27"/>
       <c r="I101" s="11"/>
       <c r="J101" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="15">
+      <c r="A102" s="19">
         <v>26</v>
       </c>
-      <c r="B102" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C102" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="D102" s="19" t="s">
+      <c r="B102" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C102" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="D102" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="E102" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="F102" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="G102" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="H102" s="19" t="s">
-        <v>105</v>
+      <c r="E102" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="F102" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G102" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="H102" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="I102" s="10" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="J102" s="10" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="15"/>
-      <c r="B103" s="17"/>
-      <c r="C103" s="20"/>
-      <c r="D103" s="20"/>
-      <c r="E103" s="24"/>
-      <c r="F103" s="24"/>
-      <c r="G103" s="24"/>
-      <c r="H103" s="20"/>
+      <c r="A103" s="19"/>
+      <c r="B103" s="21"/>
+      <c r="C103" s="26"/>
+      <c r="D103" s="26"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="26"/>
       <c r="I103" s="10" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="J103" s="10" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="15"/>
-      <c r="B104" s="17"/>
-      <c r="C104" s="20"/>
-      <c r="D104" s="20"/>
-      <c r="E104" s="24"/>
-      <c r="F104" s="24"/>
-      <c r="G104" s="24"/>
-      <c r="H104" s="20"/>
+      <c r="A104" s="19"/>
+      <c r="B104" s="21"/>
+      <c r="C104" s="26"/>
+      <c r="D104" s="26"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="17"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="26"/>
       <c r="I104" s="10" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="J104" s="10" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="15"/>
-      <c r="B105" s="18"/>
-      <c r="C105" s="21"/>
-      <c r="D105" s="21"/>
-      <c r="E105" s="25"/>
-      <c r="F105" s="25"/>
-      <c r="G105" s="25"/>
-      <c r="H105" s="21"/>
+      <c r="A105" s="19"/>
+      <c r="B105" s="22"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="27"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="27"/>
       <c r="I105" s="11"/>
       <c r="J105" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="15">
+      <c r="A106" s="19">
         <v>27</v>
       </c>
-      <c r="B106" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C106" s="22" t="s">
-        <v>205</v>
-      </c>
-      <c r="D106" s="22" t="s">
+      <c r="B106" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C106" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="D106" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E106" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="F106" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="G106" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="H106" s="19" t="s">
-        <v>105</v>
+      <c r="E106" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="F106" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="G106" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="H106" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="I106" s="10" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="J106" s="10" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="15"/>
-      <c r="B107" s="17"/>
-      <c r="C107" s="22"/>
-      <c r="D107" s="22"/>
-      <c r="E107" s="26"/>
-      <c r="F107" s="26"/>
-      <c r="G107" s="26"/>
-      <c r="H107" s="20"/>
+      <c r="A107" s="19"/>
+      <c r="B107" s="21"/>
+      <c r="C107" s="23"/>
+      <c r="D107" s="23"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="24"/>
+      <c r="H107" s="26"/>
       <c r="I107" s="10" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="J107" s="10" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="15"/>
-      <c r="B108" s="17"/>
-      <c r="C108" s="22"/>
-      <c r="D108" s="22"/>
-      <c r="E108" s="26"/>
-      <c r="F108" s="26"/>
-      <c r="G108" s="26"/>
-      <c r="H108" s="20"/>
+      <c r="A108" s="19"/>
+      <c r="B108" s="21"/>
+      <c r="C108" s="23"/>
+      <c r="D108" s="23"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="24"/>
+      <c r="H108" s="26"/>
       <c r="I108" s="10" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="J108" s="10" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="15"/>
-      <c r="B109" s="18"/>
-      <c r="C109" s="22"/>
-      <c r="D109" s="22"/>
-      <c r="E109" s="26"/>
-      <c r="F109" s="26"/>
-      <c r="G109" s="26"/>
-      <c r="H109" s="21"/>
+      <c r="A109" s="19"/>
+      <c r="B109" s="22"/>
+      <c r="C109" s="23"/>
+      <c r="D109" s="23"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="24"/>
+      <c r="H109" s="27"/>
       <c r="I109" s="11"/>
       <c r="J109" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="15">
+      <c r="A110" s="19">
         <v>28</v>
       </c>
-      <c r="B110" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C110" s="22" t="s">
-        <v>206</v>
-      </c>
-      <c r="D110" s="22" t="s">
+      <c r="B110" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C110" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D110" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E110" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="F110" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="G110" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="H110" s="19" t="s">
-        <v>105</v>
+      <c r="E110" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F110" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="G110" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="H110" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="I110" s="10" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="J110" s="10" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="15"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="22"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="26"/>
-      <c r="F111" s="26"/>
-      <c r="G111" s="26"/>
-      <c r="H111" s="20"/>
+      <c r="A111" s="19"/>
+      <c r="B111" s="21"/>
+      <c r="C111" s="23"/>
+      <c r="D111" s="23"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="24"/>
+      <c r="H111" s="26"/>
       <c r="I111" s="10" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="J111" s="10" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="15"/>
-      <c r="B112" s="17"/>
-      <c r="C112" s="22"/>
-      <c r="D112" s="22"/>
-      <c r="E112" s="26"/>
-      <c r="F112" s="26"/>
-      <c r="G112" s="26"/>
-      <c r="H112" s="20"/>
+      <c r="A112" s="19"/>
+      <c r="B112" s="21"/>
+      <c r="C112" s="23"/>
+      <c r="D112" s="23"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="24"/>
+      <c r="H112" s="26"/>
       <c r="I112" s="10" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="J112" s="10" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="15"/>
-      <c r="B113" s="18"/>
-      <c r="C113" s="22"/>
-      <c r="D113" s="22"/>
-      <c r="E113" s="26"/>
-      <c r="F113" s="26"/>
-      <c r="G113" s="26"/>
-      <c r="H113" s="21"/>
+      <c r="A113" s="19"/>
+      <c r="B113" s="22"/>
+      <c r="C113" s="23"/>
+      <c r="D113" s="23"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="24"/>
+      <c r="H113" s="27"/>
       <c r="I113" s="11"/>
       <c r="J113" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="15">
+      <c r="A114" s="19">
         <v>29</v>
       </c>
-      <c r="B114" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C114" s="22" t="s">
-        <v>207</v>
-      </c>
-      <c r="D114" s="22" t="s">
+      <c r="B114" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C114" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="D114" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E114" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="F114" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="G114" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="H114" s="19" t="s">
-        <v>105</v>
+      <c r="E114" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="F114" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="G114" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="H114" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="I114" s="10" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="J114" s="10" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="15"/>
-      <c r="B115" s="17"/>
-      <c r="C115" s="22"/>
-      <c r="D115" s="22"/>
-      <c r="E115" s="26"/>
-      <c r="F115" s="26"/>
-      <c r="G115" s="26"/>
-      <c r="H115" s="20"/>
+      <c r="A115" s="19"/>
+      <c r="B115" s="21"/>
+      <c r="C115" s="23"/>
+      <c r="D115" s="23"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="24"/>
+      <c r="G115" s="24"/>
+      <c r="H115" s="26"/>
       <c r="I115" s="10" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="J115" s="10" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="15"/>
-      <c r="B116" s="17"/>
-      <c r="C116" s="22"/>
-      <c r="D116" s="22"/>
-      <c r="E116" s="26"/>
-      <c r="F116" s="26"/>
-      <c r="G116" s="26"/>
-      <c r="H116" s="20"/>
+      <c r="A116" s="19"/>
+      <c r="B116" s="21"/>
+      <c r="C116" s="23"/>
+      <c r="D116" s="23"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="24"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="26"/>
       <c r="I116" s="10" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="J116" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="15"/>
-      <c r="B117" s="18"/>
-      <c r="C117" s="22"/>
-      <c r="D117" s="22"/>
-      <c r="E117" s="26"/>
-      <c r="F117" s="26"/>
-      <c r="G117" s="26"/>
-      <c r="H117" s="21"/>
+      <c r="A117" s="19"/>
+      <c r="B117" s="22"/>
+      <c r="C117" s="23"/>
+      <c r="D117" s="23"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="24"/>
+      <c r="H117" s="27"/>
       <c r="I117" s="11"/>
       <c r="J117" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="15">
+      <c r="A118" s="19">
         <v>30</v>
       </c>
-      <c r="B118" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C118" s="22" t="s">
-        <v>208</v>
-      </c>
-      <c r="D118" s="22" t="s">
+      <c r="B118" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C118" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="D118" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E118" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="F118" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="G118" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="H118" s="19" t="s">
-        <v>105</v>
+      <c r="E118" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="F118" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="G118" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="H118" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="I118" s="10" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="J118" s="10" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="15"/>
-      <c r="B119" s="17"/>
-      <c r="C119" s="22"/>
-      <c r="D119" s="22"/>
-      <c r="E119" s="26"/>
-      <c r="F119" s="26"/>
-      <c r="G119" s="26"/>
-      <c r="H119" s="20"/>
+      <c r="A119" s="19"/>
+      <c r="B119" s="21"/>
+      <c r="C119" s="23"/>
+      <c r="D119" s="23"/>
+      <c r="E119" s="24"/>
+      <c r="F119" s="24"/>
+      <c r="G119" s="24"/>
+      <c r="H119" s="26"/>
       <c r="I119" s="10" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="J119" s="10" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="15"/>
-      <c r="B120" s="17"/>
-      <c r="C120" s="22"/>
-      <c r="D120" s="22"/>
-      <c r="E120" s="26"/>
-      <c r="F120" s="26"/>
-      <c r="G120" s="26"/>
-      <c r="H120" s="20"/>
+      <c r="A120" s="19"/>
+      <c r="B120" s="21"/>
+      <c r="C120" s="23"/>
+      <c r="D120" s="23"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24"/>
+      <c r="H120" s="26"/>
       <c r="I120" s="10" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="J120" s="10" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="15"/>
-      <c r="B121" s="18"/>
-      <c r="C121" s="22"/>
-      <c r="D121" s="22"/>
-      <c r="E121" s="26"/>
-      <c r="F121" s="26"/>
-      <c r="G121" s="26"/>
-      <c r="H121" s="21"/>
+      <c r="A121" s="19"/>
+      <c r="B121" s="22"/>
+      <c r="C121" s="23"/>
+      <c r="D121" s="23"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="24"/>
+      <c r="H121" s="27"/>
       <c r="I121" s="11"/>
       <c r="J121" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="15">
+      <c r="A122" s="19">
         <v>31</v>
       </c>
-      <c r="B122" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C122" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="D122" s="22" t="s">
+      <c r="B122" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C122" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D122" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E122" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="F122" s="26" t="s">
-        <v>160</v>
-      </c>
-      <c r="G122" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="H122" s="19" t="s">
-        <v>105</v>
+      <c r="E122" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="F122" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="G122" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="H122" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="I122" s="10" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="J122" s="10" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="15"/>
-      <c r="B123" s="17"/>
-      <c r="C123" s="22"/>
-      <c r="D123" s="22"/>
-      <c r="E123" s="26"/>
-      <c r="F123" s="26"/>
-      <c r="G123" s="26"/>
-      <c r="H123" s="20"/>
+      <c r="A123" s="19"/>
+      <c r="B123" s="21"/>
+      <c r="C123" s="23"/>
+      <c r="D123" s="23"/>
+      <c r="E123" s="24"/>
+      <c r="F123" s="24"/>
+      <c r="G123" s="24"/>
+      <c r="H123" s="26"/>
       <c r="I123" s="10" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="J123" s="10" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="15"/>
-      <c r="B124" s="17"/>
-      <c r="C124" s="22"/>
-      <c r="D124" s="22"/>
-      <c r="E124" s="26"/>
-      <c r="F124" s="26"/>
-      <c r="G124" s="26"/>
-      <c r="H124" s="20"/>
+      <c r="A124" s="19"/>
+      <c r="B124" s="21"/>
+      <c r="C124" s="23"/>
+      <c r="D124" s="23"/>
+      <c r="E124" s="24"/>
+      <c r="F124" s="24"/>
+      <c r="G124" s="24"/>
+      <c r="H124" s="26"/>
       <c r="I124" s="10" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="J124" s="10" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="15"/>
-      <c r="B125" s="18"/>
-      <c r="C125" s="22"/>
-      <c r="D125" s="22"/>
-      <c r="E125" s="26"/>
-      <c r="F125" s="26"/>
-      <c r="G125" s="26"/>
-      <c r="H125" s="21"/>
+      <c r="A125" s="19"/>
+      <c r="B125" s="22"/>
+      <c r="C125" s="23"/>
+      <c r="D125" s="23"/>
+      <c r="E125" s="24"/>
+      <c r="F125" s="24"/>
+      <c r="G125" s="24"/>
+      <c r="H125" s="27"/>
       <c r="I125" s="11"/>
       <c r="J125" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="15">
+      <c r="A126" s="19">
         <v>32</v>
       </c>
-      <c r="B126" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C126" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="D126" s="22" t="s">
+      <c r="B126" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C126" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="D126" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E126" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="F126" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="G126" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="H126" s="19" t="s">
-        <v>105</v>
+      <c r="E126" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="F126" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="G126" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="H126" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="I126" s="10" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="J126" s="10" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="15"/>
-      <c r="B127" s="17"/>
-      <c r="C127" s="22"/>
-      <c r="D127" s="22"/>
-      <c r="E127" s="26"/>
-      <c r="F127" s="26"/>
-      <c r="G127" s="26"/>
-      <c r="H127" s="20"/>
+      <c r="A127" s="19"/>
+      <c r="B127" s="21"/>
+      <c r="C127" s="23"/>
+      <c r="D127" s="23"/>
+      <c r="E127" s="24"/>
+      <c r="F127" s="24"/>
+      <c r="G127" s="24"/>
+      <c r="H127" s="26"/>
       <c r="I127" s="10" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="J127" s="10" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="15"/>
-      <c r="B128" s="17"/>
-      <c r="C128" s="22"/>
-      <c r="D128" s="22"/>
-      <c r="E128" s="26"/>
-      <c r="F128" s="26"/>
-      <c r="G128" s="26"/>
-      <c r="H128" s="20"/>
+      <c r="A128" s="19"/>
+      <c r="B128" s="21"/>
+      <c r="C128" s="23"/>
+      <c r="D128" s="23"/>
+      <c r="E128" s="24"/>
+      <c r="F128" s="24"/>
+      <c r="G128" s="24"/>
+      <c r="H128" s="26"/>
       <c r="I128" s="10" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="J128" s="10" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="15"/>
-      <c r="B129" s="18"/>
-      <c r="C129" s="22"/>
-      <c r="D129" s="22"/>
-      <c r="E129" s="26"/>
-      <c r="F129" s="26"/>
-      <c r="G129" s="26"/>
-      <c r="H129" s="21"/>
+      <c r="A129" s="19"/>
+      <c r="B129" s="22"/>
+      <c r="C129" s="23"/>
+      <c r="D129" s="23"/>
+      <c r="E129" s="24"/>
+      <c r="F129" s="24"/>
+      <c r="G129" s="24"/>
+      <c r="H129" s="27"/>
       <c r="I129" s="11"/>
       <c r="J129" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="15">
+      <c r="A130" s="19">
         <v>33</v>
       </c>
-      <c r="B130" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C130" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="D130" s="22" t="s">
+      <c r="B130" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C130" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="D130" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E130" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="F130" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="G130" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="H130" s="19" t="s">
-        <v>105</v>
+      <c r="E130" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="F130" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G130" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="H130" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="I130" s="10" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="J130" s="10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="19"/>
+      <c r="B131" s="21"/>
+      <c r="C131" s="23"/>
+      <c r="D131" s="23"/>
+      <c r="E131" s="24"/>
+      <c r="F131" s="24"/>
+      <c r="G131" s="24"/>
+      <c r="H131" s="26"/>
+      <c r="I131" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="J131" s="10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="19"/>
+      <c r="B132" s="21"/>
+      <c r="C132" s="23"/>
+      <c r="D132" s="23"/>
+      <c r="E132" s="24"/>
+      <c r="F132" s="24"/>
+      <c r="G132" s="24"/>
+      <c r="H132" s="26"/>
+      <c r="I132" s="10" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="15"/>
-      <c r="B131" s="17"/>
-      <c r="C131" s="22"/>
-      <c r="D131" s="22"/>
-      <c r="E131" s="26"/>
-      <c r="F131" s="26"/>
-      <c r="G131" s="26"/>
-      <c r="H131" s="20"/>
-      <c r="I131" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="J131" s="10" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="15"/>
-      <c r="B132" s="17"/>
-      <c r="C132" s="22"/>
-      <c r="D132" s="22"/>
-      <c r="E132" s="26"/>
-      <c r="F132" s="26"/>
-      <c r="G132" s="26"/>
-      <c r="H132" s="20"/>
-      <c r="I132" s="10" t="s">
-        <v>354</v>
-      </c>
       <c r="J132" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="15"/>
-      <c r="B133" s="18"/>
-      <c r="C133" s="22"/>
-      <c r="D133" s="22"/>
-      <c r="E133" s="26"/>
-      <c r="F133" s="26"/>
-      <c r="G133" s="26"/>
-      <c r="H133" s="21"/>
+      <c r="A133" s="19"/>
+      <c r="B133" s="22"/>
+      <c r="C133" s="23"/>
+      <c r="D133" s="23"/>
+      <c r="E133" s="24"/>
+      <c r="F133" s="24"/>
+      <c r="G133" s="24"/>
+      <c r="H133" s="27"/>
       <c r="I133" s="11"/>
       <c r="J133" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="15">
+      <c r="A134" s="19">
         <v>34</v>
       </c>
-      <c r="B134" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="C134" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="D134" s="22" t="s">
+      <c r="B134" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C134" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="D134" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E134" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="F134" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="G134" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="H134" s="19" t="s">
-        <v>105</v>
+      <c r="E134" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="F134" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="G134" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="H134" s="25" t="s">
+        <v>103</v>
       </c>
       <c r="I134" s="10" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="J134" s="10" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="15"/>
-      <c r="B135" s="17"/>
-      <c r="C135" s="22"/>
-      <c r="D135" s="22"/>
-      <c r="E135" s="26"/>
-      <c r="F135" s="26"/>
-      <c r="G135" s="26"/>
-      <c r="H135" s="20"/>
+      <c r="A135" s="19"/>
+      <c r="B135" s="21"/>
+      <c r="C135" s="23"/>
+      <c r="D135" s="23"/>
+      <c r="E135" s="24"/>
+      <c r="F135" s="24"/>
+      <c r="G135" s="24"/>
+      <c r="H135" s="26"/>
       <c r="I135" s="10" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="J135" s="10" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="15"/>
-      <c r="B136" s="17"/>
-      <c r="C136" s="22"/>
-      <c r="D136" s="22"/>
-      <c r="E136" s="26"/>
-      <c r="F136" s="26"/>
-      <c r="G136" s="26"/>
-      <c r="H136" s="20"/>
+      <c r="A136" s="19"/>
+      <c r="B136" s="21"/>
+      <c r="C136" s="23"/>
+      <c r="D136" s="23"/>
+      <c r="E136" s="24"/>
+      <c r="F136" s="24"/>
+      <c r="G136" s="24"/>
+      <c r="H136" s="26"/>
       <c r="I136" s="10" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="J136" s="10" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="15"/>
-      <c r="B137" s="18"/>
-      <c r="C137" s="22"/>
-      <c r="D137" s="22"/>
-      <c r="E137" s="26"/>
-      <c r="F137" s="26"/>
-      <c r="G137" s="26"/>
-      <c r="H137" s="21"/>
+      <c r="A137" s="19"/>
+      <c r="B137" s="22"/>
+      <c r="C137" s="23"/>
+      <c r="D137" s="23"/>
+      <c r="E137" s="24"/>
+      <c r="F137" s="24"/>
+      <c r="G137" s="24"/>
+      <c r="H137" s="27"/>
       <c r="I137" s="11"/>
       <c r="J137" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="15">
+      <c r="A138" s="19">
         <v>35</v>
       </c>
-      <c r="B138" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="C138" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="D138" s="22" t="s">
+      <c r="B138" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C138" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="D138" s="23" t="s">
         <v>14</v>
       </c>
       <c r="E138" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="F138" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="G138" s="23" t="s">
-        <v>349</v>
-      </c>
-      <c r="H138" s="22" t="s">
-        <v>105</v>
+      <c r="F138" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="G138" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="H138" s="23" t="s">
+        <v>103</v>
       </c>
       <c r="I138" s="10" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="J138" s="10" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="15"/>
-      <c r="B139" s="17"/>
-      <c r="C139" s="20"/>
-      <c r="D139" s="22"/>
+      <c r="A139" s="19"/>
+      <c r="B139" s="21"/>
+      <c r="C139" s="26"/>
+      <c r="D139" s="23"/>
       <c r="E139" s="31"/>
-      <c r="F139" s="24"/>
-      <c r="G139" s="24"/>
-      <c r="H139" s="22"/>
+      <c r="F139" s="17"/>
+      <c r="G139" s="17"/>
+      <c r="H139" s="23"/>
       <c r="I139" s="10" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="J139" s="10" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="15"/>
-      <c r="B140" s="17"/>
-      <c r="C140" s="20"/>
-      <c r="D140" s="22"/>
+      <c r="A140" s="19"/>
+      <c r="B140" s="21"/>
+      <c r="C140" s="26"/>
+      <c r="D140" s="23"/>
       <c r="E140" s="31"/>
-      <c r="F140" s="24"/>
-      <c r="G140" s="24"/>
-      <c r="H140" s="22"/>
+      <c r="F140" s="17"/>
+      <c r="G140" s="17"/>
+      <c r="H140" s="23"/>
       <c r="I140" s="10"/>
       <c r="J140" s="10" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="15"/>
-      <c r="B141" s="18"/>
-      <c r="C141" s="21"/>
-      <c r="D141" s="22"/>
+      <c r="A141" s="19"/>
+      <c r="B141" s="22"/>
+      <c r="C141" s="27"/>
+      <c r="D141" s="23"/>
       <c r="E141" s="31"/>
-      <c r="F141" s="25"/>
-      <c r="G141" s="25"/>
-      <c r="H141" s="22"/>
+      <c r="F141" s="18"/>
+      <c r="G141" s="18"/>
+      <c r="H141" s="23"/>
       <c r="I141" s="11"/>
       <c r="J141" s="10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E142" s="30"/>
+      <c r="E142" s="15"/>
     </row>
     <row r="143" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E143" s="30"/>
-      <c r="F143" s="23"/>
+      <c r="E143" s="15"/>
+      <c r="F143" s="16"/>
     </row>
     <row r="144" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E144" s="30"/>
-      <c r="F144" s="24"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="17"/>
     </row>
     <row r="145" spans="5:6" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E145" s="30"/>
-      <c r="F145" s="24"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="17"/>
     </row>
     <row r="146" spans="5:6" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F146" s="25"/>
+      <c r="F146" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="282">
-    <mergeCell ref="E142:E145"/>
-    <mergeCell ref="F143:F146"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="E118:E121"/>
-    <mergeCell ref="F118:F121"/>
-    <mergeCell ref="G118:G121"/>
-    <mergeCell ref="H118:H121"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="D110:D113"/>
-    <mergeCell ref="E110:E113"/>
-    <mergeCell ref="F110:F113"/>
-    <mergeCell ref="G110:G113"/>
-    <mergeCell ref="H110:H113"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="D114:D117"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="F114:F117"/>
-    <mergeCell ref="G114:G117"/>
-    <mergeCell ref="H114:H117"/>
+    <mergeCell ref="H138:H141"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="D130:D133"/>
+    <mergeCell ref="E130:E133"/>
+    <mergeCell ref="F130:F133"/>
+    <mergeCell ref="G130:G133"/>
+    <mergeCell ref="H130:H133"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="D134:D137"/>
+    <mergeCell ref="E134:E137"/>
+    <mergeCell ref="F134:F137"/>
+    <mergeCell ref="G134:G137"/>
+    <mergeCell ref="H134:H137"/>
+    <mergeCell ref="H122:H125"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="D126:D129"/>
+    <mergeCell ref="E126:E129"/>
+    <mergeCell ref="F126:F129"/>
+    <mergeCell ref="G126:G129"/>
+    <mergeCell ref="H126:H129"/>
+    <mergeCell ref="F102:F105"/>
+    <mergeCell ref="G102:G105"/>
+    <mergeCell ref="H102:H105"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="B102:B105"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="D102:D105"/>
+    <mergeCell ref="E102:E105"/>
+    <mergeCell ref="F94:F97"/>
+    <mergeCell ref="G94:G97"/>
+    <mergeCell ref="H94:H97"/>
+    <mergeCell ref="A98:A101"/>
+    <mergeCell ref="B98:B101"/>
+    <mergeCell ref="C98:C101"/>
+    <mergeCell ref="D98:D101"/>
+    <mergeCell ref="E98:E101"/>
+    <mergeCell ref="F98:F101"/>
+    <mergeCell ref="G98:G101"/>
+    <mergeCell ref="H98:H101"/>
+    <mergeCell ref="A94:A97"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="C94:C97"/>
+    <mergeCell ref="D94:D97"/>
+    <mergeCell ref="E94:E97"/>
+    <mergeCell ref="F86:F89"/>
+    <mergeCell ref="G86:G89"/>
+    <mergeCell ref="H86:H89"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="D90:D93"/>
+    <mergeCell ref="E90:E93"/>
+    <mergeCell ref="F90:F93"/>
+    <mergeCell ref="G90:G93"/>
+    <mergeCell ref="H90:H93"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="E86:E89"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="G78:G81"/>
+    <mergeCell ref="H78:H81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="F82:F85"/>
+    <mergeCell ref="G82:G85"/>
+    <mergeCell ref="H82:H85"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="G70:G73"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="F74:F77"/>
+    <mergeCell ref="G74:G77"/>
+    <mergeCell ref="H74:H77"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="G62:G65"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="F66:F69"/>
+    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="H66:H69"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="D62:D65"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="F58:F61"/>
+    <mergeCell ref="G58:G61"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
     <mergeCell ref="A106:A109"/>
     <mergeCell ref="B106:B109"/>
     <mergeCell ref="C106:C109"/>
@@ -5567,198 +5769,32 @@
     <mergeCell ref="H26:H29"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="F46:F49"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="D58:D61"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="F58:F61"/>
-    <mergeCell ref="G58:G61"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="F62:F65"/>
-    <mergeCell ref="G62:G65"/>
-    <mergeCell ref="H62:H65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="F66:F69"/>
-    <mergeCell ref="G66:G69"/>
-    <mergeCell ref="H66:H69"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="D62:D65"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="G70:G73"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="F74:F77"/>
-    <mergeCell ref="G74:G77"/>
-    <mergeCell ref="H74:H77"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="G78:G81"/>
-    <mergeCell ref="H78:H81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="F82:F85"/>
-    <mergeCell ref="G82:G85"/>
-    <mergeCell ref="H82:H85"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="F86:F89"/>
-    <mergeCell ref="G86:G89"/>
-    <mergeCell ref="H86:H89"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="D90:D93"/>
-    <mergeCell ref="E90:E93"/>
-    <mergeCell ref="F90:F93"/>
-    <mergeCell ref="G90:G93"/>
-    <mergeCell ref="H90:H93"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="F102:F105"/>
-    <mergeCell ref="G102:G105"/>
-    <mergeCell ref="H102:H105"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="B102:B105"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="D102:D105"/>
-    <mergeCell ref="E102:E105"/>
-    <mergeCell ref="F94:F97"/>
-    <mergeCell ref="G94:G97"/>
-    <mergeCell ref="H94:H97"/>
-    <mergeCell ref="A98:A101"/>
-    <mergeCell ref="B98:B101"/>
-    <mergeCell ref="C98:C101"/>
-    <mergeCell ref="D98:D101"/>
-    <mergeCell ref="E98:E101"/>
-    <mergeCell ref="F98:F101"/>
-    <mergeCell ref="G98:G101"/>
-    <mergeCell ref="H98:H101"/>
-    <mergeCell ref="A94:A97"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="C94:C97"/>
-    <mergeCell ref="D94:D97"/>
-    <mergeCell ref="E94:E97"/>
+    <mergeCell ref="H118:H121"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="D110:D113"/>
+    <mergeCell ref="E110:E113"/>
+    <mergeCell ref="F110:F113"/>
+    <mergeCell ref="G110:G113"/>
+    <mergeCell ref="H110:H113"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="F114:F117"/>
+    <mergeCell ref="G114:G117"/>
+    <mergeCell ref="H114:H117"/>
+    <mergeCell ref="E142:E145"/>
+    <mergeCell ref="F143:F146"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="D118:D121"/>
+    <mergeCell ref="E118:E121"/>
+    <mergeCell ref="F118:F121"/>
+    <mergeCell ref="G118:G121"/>
     <mergeCell ref="A122:A125"/>
     <mergeCell ref="B122:B125"/>
     <mergeCell ref="C122:C125"/>
@@ -5766,15 +5802,6 @@
     <mergeCell ref="E122:E125"/>
     <mergeCell ref="F122:F125"/>
     <mergeCell ref="G122:G125"/>
-    <mergeCell ref="H122:H125"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="D126:D129"/>
-    <mergeCell ref="E126:E129"/>
-    <mergeCell ref="F126:F129"/>
-    <mergeCell ref="G126:G129"/>
-    <mergeCell ref="H126:H129"/>
     <mergeCell ref="A138:A141"/>
     <mergeCell ref="B138:B141"/>
     <mergeCell ref="C138:C141"/>
@@ -5782,23 +5809,6 @@
     <mergeCell ref="E138:E141"/>
     <mergeCell ref="F138:F141"/>
     <mergeCell ref="G138:G141"/>
-    <mergeCell ref="H138:H141"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="B130:B133"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="D130:D133"/>
-    <mergeCell ref="E130:E133"/>
-    <mergeCell ref="F130:F133"/>
-    <mergeCell ref="G130:G133"/>
-    <mergeCell ref="H130:H133"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="D134:D137"/>
-    <mergeCell ref="E134:E137"/>
-    <mergeCell ref="F134:F137"/>
-    <mergeCell ref="G134:G137"/>
-    <mergeCell ref="H134:H137"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5809,8 +5819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45713967-6DC6-49B2-93C9-D103D70C4F39}">
   <dimension ref="A1:A46"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/IT23442252/IT23442252.xlsx
+++ b/IT23442252/IT23442252.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://magicwoods-my.sharepoint.com/personal/showmikau_magicktech_com/Documents/Desktop/IT23442252/IT23442252/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="714" documentId="8_{0A568BBA-E62C-4AA7-AEF4-98302E27E4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EA8F1DA-593E-4B86-8600-96E0CAED77CF}"/>
+  <xr:revisionPtr revIDLastSave="720" documentId="8_{0A568BBA-E62C-4AA7-AEF4-98302E27E4AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{166EC87D-938C-4AAC-A82F-5A48A2764815}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="366">
   <si>
     <t>TC ID</t>
   </si>
@@ -1447,9 +1447,6 @@
     <t>பைக் ஸ்டார்ட் ஆகாததால் time க்கு போகமுடியல</t>
   </si>
   <si>
-    <t>Neg_UI_0001</t>
-  </si>
-  <si>
     <t xml:space="preserve">அக்காக்கு மொண்டாய் ௧௦ மணிக்கு இந்தெர்விஎவ் இருக்கு </t>
   </si>
   <si>
@@ -1990,12 +1987,6 @@
     <t xml:space="preserve">Tamil output update automatically while typing and display: போரம் ஆ சப்மிட் பண்ண கோணபிரமத்தின் மெசேஜ் டிஸ்பிலே ஆகும்  </t>
   </si>
   <si>
-    <t>Tamil output not appears in real-time conversion.</t>
-  </si>
-  <si>
-    <t>Error handling / input validation (use for negative UI)</t>
-  </si>
-  <si>
     <t>Incorrectly transliterated to Tamil affecting meaning.</t>
   </si>
   <si>
@@ -2063,13 +2054,25 @@
   </si>
   <si>
     <t>Complex Sentence</t>
+  </si>
+  <si>
+    <t>Pos_UI_0001</t>
+  </si>
+  <si>
+    <t>Tamil output appears in real-time conversion.</t>
+  </si>
+  <si>
+    <t>Output updates correctly as the user types the full sentence</t>
+  </si>
+  <si>
+    <t>No UI or freeezing observed for short input</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2224,13 +2227,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2348,7 +2344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -2390,17 +2386,8 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2415,9 +2402,6 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2429,16 +2413,25 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2456,10 +2449,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2727,8 +2716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C87" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82:G85"/>
+    <sheetView tabSelected="1" topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="I139" sqref="I139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="50" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2783,25 +2772,25 @@
       <c r="A2" s="29">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="15" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="10" t="s">
@@ -2813,13 +2802,13 @@
     </row>
     <row r="3" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="29"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="23"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="15"/>
       <c r="I3" s="10" t="s">
         <v>94</v>
       </c>
@@ -2829,13 +2818,13 @@
     </row>
     <row r="4" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="23"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="15"/>
       <c r="I4" s="10" t="s">
         <v>96</v>
       </c>
@@ -2845,13 +2834,13 @@
     </row>
     <row r="5" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="29"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="23"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="15"/>
       <c r="I5" s="11"/>
       <c r="J5" s="10" t="s">
         <v>100</v>
@@ -2861,61 +2850,61 @@
       <c r="A6" s="29">
         <v>2</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="D6" s="23" t="s">
+      <c r="C6" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="15" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="29"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="23"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="15"/>
       <c r="I7" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="29"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="23"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="15"/>
       <c r="I8" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J8" s="10" t="s">
         <v>99</v>
@@ -2923,2636 +2912,2844 @@
     </row>
     <row r="9" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="29"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="23"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="15"/>
       <c r="I9" s="11"/>
       <c r="J9" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="16">
+        <v>3</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="10" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="19">
-        <v>3</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="G10" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>215</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="23"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="15"/>
       <c r="I11" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="16"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="10" t="s">
         <v>216</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="19"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="10" t="s">
-        <v>217</v>
       </c>
       <c r="J12" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="19"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="23"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="15"/>
       <c r="I13" s="11"/>
       <c r="J13" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="19">
+      <c r="A14" s="16">
         <v>4</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="D14" s="23" t="s">
+      <c r="C14" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="15" t="s">
         <v>12</v>
       </c>
       <c r="I14" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="16"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="J14" s="10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="19"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="10" t="s">
+      <c r="J15" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="16"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="10" t="s">
         <v>219</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="19"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="10" t="s">
-        <v>220</v>
       </c>
       <c r="J16" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="19"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="23"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="15"/>
       <c r="I17" s="11"/>
       <c r="J17" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="19">
+      <c r="A18" s="16">
         <v>5</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="D18" s="23" t="s">
+      <c r="C18" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="H18" s="23" t="s">
+      <c r="H18" s="15" t="s">
         <v>12</v>
       </c>
       <c r="I18" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="16"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="19"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="10" t="s">
+      <c r="J19" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="16"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="10" t="s">
         <v>223</v>
-      </c>
-      <c r="J19" s="10" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="19"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="10" t="s">
-        <v>224</v>
       </c>
       <c r="J20" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="19"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="23"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="15"/>
       <c r="I21" s="11"/>
       <c r="J21" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="19">
+      <c r="A22" s="16">
         <v>6</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="D22" s="23" t="s">
+      <c r="C22" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H22" s="15" t="s">
         <v>12</v>
       </c>
       <c r="I22" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="16"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="J22" s="10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="19"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="10" t="s">
+      <c r="J23" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="16"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J24" s="10" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="19"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>230</v>
-      </c>
-    </row>
     <row r="25" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="19"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="23"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="15"/>
       <c r="I25" s="11"/>
       <c r="J25" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="19">
+      <c r="A26" s="16">
         <v>7</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="D26" s="23" t="s">
+      <c r="C26" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="24" t="s">
-        <v>355</v>
-      </c>
-      <c r="F26" s="24" t="s">
+      <c r="E26" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="16"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="J27" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="H26" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26" s="10" t="s">
+    </row>
+    <row r="28" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="16"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="J26" s="10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="19"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="19"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="10" t="s">
-        <v>232</v>
-      </c>
       <c r="J28" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="19"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="23"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="15"/>
       <c r="I29" s="11"/>
       <c r="J29" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="19">
+      <c r="A30" s="16">
         <v>8</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="D30" s="23" t="s">
+      <c r="C30" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="D30" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="F30" s="24" t="s">
+      <c r="F30" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="H30" s="23" t="s">
+      <c r="H30" s="15" t="s">
         <v>12</v>
       </c>
       <c r="I30" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="16"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="J31" s="10" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="19"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="10" t="s">
+    <row r="32" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="16"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="J31" s="10" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="19"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="10" t="s">
-        <v>235</v>
-      </c>
       <c r="J32" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="19"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="23"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="15"/>
       <c r="I33" s="11"/>
       <c r="J33" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="19">
+      <c r="A34" s="16">
         <v>9</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="D34" s="23" t="s">
+      <c r="C34" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="D34" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="F34" s="24" t="s">
+      <c r="F34" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="H34" s="23" t="s">
+      <c r="H34" s="15" t="s">
         <v>12</v>
       </c>
       <c r="I34" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="16"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="J34" s="10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="19"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="10" t="s">
+      <c r="J35" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="16"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="10" t="s">
         <v>239</v>
-      </c>
-      <c r="J35" s="10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="19"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="10" t="s">
-        <v>240</v>
       </c>
       <c r="J36" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="19"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="23"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="15"/>
       <c r="I37" s="11"/>
       <c r="J37" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="19">
+      <c r="A38" s="16">
         <v>10</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="D38" s="23" t="s">
+      <c r="C38" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="D38" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="24" t="s">
+      <c r="E38" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="F38" s="24" t="s">
+      <c r="F38" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="G38" s="24" t="s">
+      <c r="G38" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="H38" s="23" t="s">
+      <c r="H38" s="15" t="s">
         <v>12</v>
       </c>
       <c r="I38" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="16"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="J38" s="10" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="19"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="10" t="s">
+      <c r="J39" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="16"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="J39" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="19"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="10" t="s">
-        <v>244</v>
-      </c>
       <c r="J40" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="19"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="23"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="15"/>
       <c r="I41" s="11"/>
       <c r="J41" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="19">
+      <c r="A42" s="16">
         <v>11</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="D42" s="23" t="s">
+      <c r="C42" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D42" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="24" t="s">
+      <c r="E42" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="F42" s="24" t="s">
+      <c r="F42" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="H42" s="23" t="s">
+      <c r="H42" s="15" t="s">
         <v>12</v>
       </c>
       <c r="I42" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="J42" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="16"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="J42" s="10" t="s">
+      <c r="J43" s="10" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="19"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="10" t="s">
+    <row r="44" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="16"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="10" t="s">
         <v>247</v>
-      </c>
-      <c r="J43" s="10" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="19"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="10" t="s">
-        <v>248</v>
       </c>
       <c r="J44" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="19"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="23"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="23"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="15"/>
       <c r="I45" s="11"/>
       <c r="J45" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="19">
+      <c r="A46" s="16">
         <v>12</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="D46" s="23" t="s">
+      <c r="C46" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D46" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E46" s="24" t="s">
+      <c r="E46" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="F46" s="24" t="s">
+      <c r="F46" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="G46" s="24" t="s">
+      <c r="G46" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="H46" s="23" t="s">
+      <c r="H46" s="15" t="s">
         <v>12</v>
       </c>
       <c r="I46" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="J46" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="16"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="J46" s="10" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="19"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="10" t="s">
+      <c r="J47" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="16"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="J47" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="19"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="10" t="s">
-        <v>253</v>
-      </c>
       <c r="J48" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="19"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="23"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="15"/>
       <c r="I49" s="11"/>
       <c r="J49" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="19">
+      <c r="A50" s="16">
         <v>13</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B50" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="D50" s="23" t="s">
+      <c r="C50" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="D50" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E50" s="24" t="s">
-        <v>358</v>
-      </c>
-      <c r="F50" s="24" t="s">
-        <v>359</v>
-      </c>
-      <c r="G50" s="24" t="s">
-        <v>359</v>
-      </c>
-      <c r="H50" s="23" t="s">
+      <c r="E50" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="H50" s="15" t="s">
         <v>12</v>
       </c>
       <c r="I50" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="16"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="J50" s="10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="19"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="10" t="s">
+      <c r="J51" s="10" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="16"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="J51" s="10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="19"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="10" t="s">
-        <v>257</v>
-      </c>
       <c r="J52" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="19"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="23"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="15"/>
       <c r="I53" s="11"/>
       <c r="J53" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="19">
+      <c r="A54" s="16">
         <v>14</v>
       </c>
-      <c r="B54" s="28" t="s">
+      <c r="B54" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C54" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="D54" s="23" t="s">
+      <c r="C54" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D54" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="24" t="s">
+      <c r="E54" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="F54" s="24" t="s">
+      <c r="F54" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="G54" s="24" t="s">
+      <c r="G54" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="H54" s="23" t="s">
+      <c r="H54" s="15" t="s">
         <v>12</v>
       </c>
       <c r="I54" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="16"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="J54" s="10" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="19"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="10" t="s">
+      <c r="J55" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="16"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="10" t="s">
         <v>260</v>
-      </c>
-      <c r="J55" s="10" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="19"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="10" t="s">
-        <v>261</v>
       </c>
       <c r="J56" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="19"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="23"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="15"/>
       <c r="I57" s="11"/>
       <c r="J57" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="19">
+      <c r="A58" s="16">
         <v>15</v>
       </c>
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="D58" s="23" t="s">
+      <c r="C58" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="D58" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E58" s="24" t="s">
-        <v>360</v>
-      </c>
-      <c r="F58" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="G58" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="H58" s="23" t="s">
+      <c r="E58" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="G58" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="H58" s="15" t="s">
         <v>12</v>
       </c>
       <c r="I58" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="J58" s="10" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="16"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="J58" s="10" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="19"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="10" t="s">
+      <c r="J59" s="10" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="16"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="J59" s="10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="19"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="10" t="s">
-        <v>265</v>
-      </c>
       <c r="J60" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="19"/>
-      <c r="B61" s="28"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="23"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="15"/>
       <c r="I61" s="11"/>
       <c r="J61" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="19">
+      <c r="A62" s="16">
         <v>16</v>
       </c>
-      <c r="B62" s="28" t="s">
+      <c r="B62" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="C62" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D62" s="23" t="s">
+      <c r="C62" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="D62" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="24" t="s">
+      <c r="E62" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F62" s="24" t="s">
+      <c r="F62" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="G62" s="24" t="s">
+      <c r="G62" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="H62" s="23" t="s">
+      <c r="H62" s="15" t="s">
         <v>12</v>
       </c>
       <c r="I62" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="J62" s="10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="16"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="J62" s="10" t="s">
+      <c r="J63" s="10" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="19"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="10" t="s">
+    <row r="64" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="16"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="10" t="s">
         <v>268</v>
-      </c>
-      <c r="J63" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="19"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="10" t="s">
-        <v>269</v>
       </c>
       <c r="J64" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="19"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="23"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="15"/>
       <c r="I65" s="11"/>
       <c r="J65" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="19">
+      <c r="A66" s="16">
         <v>17</v>
       </c>
-      <c r="B66" s="28" t="s">
+      <c r="B66" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C66" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="D66" s="23" t="s">
+      <c r="C66" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="D66" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E66" s="24" t="s">
+      <c r="E66" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="F66" s="24" t="s">
+      <c r="F66" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="G66" s="24" t="s">
+      <c r="G66" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="H66" s="23" t="s">
+      <c r="H66" s="15" t="s">
         <v>12</v>
       </c>
       <c r="I66" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="J66" s="10" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="16"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="J66" s="10" t="s">
+      <c r="J67" s="10" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="19"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="23"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="23"/>
-      <c r="I67" s="10" t="s">
+    <row r="68" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="16"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="J67" s="10" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="19"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="23"/>
-      <c r="I68" s="10" t="s">
-        <v>274</v>
-      </c>
       <c r="J68" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="19"/>
-      <c r="B69" s="28"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="23"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="20"/>
+      <c r="H69" s="15"/>
       <c r="I69" s="11"/>
       <c r="J69" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="19">
+      <c r="A70" s="16">
         <v>18</v>
       </c>
-      <c r="B70" s="20" t="s">
+      <c r="B70" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C70" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="D70" s="25" t="s">
+      <c r="C70" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="D70" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E70" s="16" t="s">
+      <c r="E70" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="F70" s="16" t="s">
+      <c r="F70" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="G70" s="16" t="s">
+      <c r="G70" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="H70" s="25" t="s">
+      <c r="H70" s="21" t="s">
         <v>12</v>
       </c>
       <c r="I70" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="J70" s="10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="16"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="J70" s="10" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="19"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="10" t="s">
+      <c r="J71" s="10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="16"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="J71" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="19"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="26"/>
-      <c r="I72" s="10" t="s">
-        <v>279</v>
-      </c>
       <c r="J72" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="19"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="27"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="23"/>
       <c r="I73" s="11"/>
       <c r="J73" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="19">
+      <c r="A74" s="16">
         <v>19</v>
       </c>
-      <c r="B74" s="20" t="s">
+      <c r="B74" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C74" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="D74" s="25" t="s">
+      <c r="C74" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="D74" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="F74" s="16" t="s">
+      <c r="F74" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="G74" s="16" t="s">
+      <c r="G74" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="H74" s="25" t="s">
+      <c r="H74" s="21" t="s">
         <v>12</v>
       </c>
       <c r="I74" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="J74" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="16"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="J74" s="10" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="19"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="26"/>
-      <c r="I75" s="10" t="s">
+      <c r="J75" s="10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="16"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="10" t="s">
         <v>282</v>
-      </c>
-      <c r="J75" s="10" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="19"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="26"/>
-      <c r="I76" s="10" t="s">
-        <v>283</v>
       </c>
       <c r="J76" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="19"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="27"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="23"/>
       <c r="I77" s="11"/>
       <c r="J77" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="19">
+      <c r="A78" s="16">
         <v>20</v>
       </c>
-      <c r="B78" s="20" t="s">
+      <c r="B78" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C78" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="D78" s="25" t="s">
+      <c r="C78" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="D78" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E78" s="16" t="s">
+      <c r="E78" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="F78" s="16" t="s">
+      <c r="F78" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="G78" s="16" t="s">
+      <c r="G78" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="H78" s="25" t="s">
+      <c r="H78" s="21" t="s">
         <v>12</v>
       </c>
       <c r="I78" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="J78" s="10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="16"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="22"/>
+      <c r="I79" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="J78" s="10" t="s">
+      <c r="J79" s="10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="16"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="J80" s="10" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="19"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="26"/>
-      <c r="I79" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="J79" s="10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="19"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="26"/>
-      <c r="I80" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="J80" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
     <row r="81" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="19"/>
-      <c r="B81" s="22"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="27"/>
+      <c r="A81" s="16"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="26"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="23"/>
       <c r="I81" s="11"/>
       <c r="J81" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="19">
+      <c r="A82" s="16">
         <v>21</v>
       </c>
-      <c r="B82" s="20" t="s">
+      <c r="B82" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C82" s="25" t="s">
-        <v>191</v>
-      </c>
-      <c r="D82" s="25" t="s">
+      <c r="C82" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="D82" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E82" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="F82" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="G82" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="H82" s="25" t="s">
+      <c r="E82" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="F82" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="G82" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="H82" s="21" t="s">
         <v>12</v>
       </c>
       <c r="I82" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="J82" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="16"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="J83" s="10" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="16"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="J82" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="19"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="26"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="26"/>
-      <c r="I83" s="10" t="s">
-        <v>352</v>
-      </c>
-      <c r="J83" s="10" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="19"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="26"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="26"/>
-      <c r="I84" s="10" t="s">
-        <v>290</v>
-      </c>
       <c r="J84" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="19"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="27"/>
+      <c r="A85" s="16"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="26"/>
+      <c r="H85" s="23"/>
       <c r="I85" s="11"/>
       <c r="J85" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="19">
+      <c r="A86" s="16">
         <v>22</v>
       </c>
-      <c r="B86" s="20" t="s">
+      <c r="B86" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C86" s="25" t="s">
-        <v>192</v>
-      </c>
-      <c r="D86" s="25" t="s">
+      <c r="C86" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="D86" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E86" s="16" t="s">
+      <c r="E86" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="F86" s="16" t="s">
+      <c r="F86" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="G86" s="16" t="s">
+      <c r="G86" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="H86" s="25" t="s">
+      <c r="H86" s="21" t="s">
         <v>12</v>
       </c>
       <c r="I86" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="J86" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="16"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="J86" s="10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="19"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="26"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="26"/>
-      <c r="I87" s="10" t="s">
+      <c r="J87" s="10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="16"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="10" t="s">
         <v>293</v>
-      </c>
-      <c r="J87" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="19"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="26"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="26"/>
-      <c r="I88" s="10" t="s">
-        <v>294</v>
       </c>
       <c r="J88" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="19"/>
-      <c r="B89" s="22"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="18"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="27"/>
+      <c r="A89" s="16"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="23"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="26"/>
+      <c r="H89" s="23"/>
       <c r="I89" s="11"/>
       <c r="J89" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="19">
+      <c r="A90" s="16">
         <v>23</v>
       </c>
-      <c r="B90" s="20" t="s">
+      <c r="B90" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C90" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="D90" s="25" t="s">
+      <c r="C90" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="D90" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="E90" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="F90" s="16" t="s">
+      <c r="F90" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="G90" s="16" t="s">
+      <c r="G90" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="H90" s="25" t="s">
+      <c r="H90" s="21" t="s">
         <v>12</v>
       </c>
       <c r="I90" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="J90" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="J90" s="10" t="s">
+    </row>
+    <row r="91" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="16"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="22"/>
+      <c r="I91" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="J91" s="10" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="19"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="26"/>
-      <c r="D91" s="26"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="17"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="26"/>
-      <c r="I91" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="J91" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
     <row r="92" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="19"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="26"/>
-      <c r="D92" s="26"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="26"/>
+      <c r="A92" s="16"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="22"/>
       <c r="I92" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J92" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="19"/>
-      <c r="B93" s="22"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="27"/>
+      <c r="A93" s="16"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="26"/>
+      <c r="H93" s="23"/>
       <c r="I93" s="11"/>
       <c r="J93" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="19">
+      <c r="A94" s="16">
         <v>24</v>
       </c>
-      <c r="B94" s="20" t="s">
+      <c r="B94" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="C94" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="D94" s="25" t="s">
+      <c r="C94" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D94" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E94" s="16" t="s">
+      <c r="E94" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="F94" s="16" t="s">
+      <c r="F94" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="G94" s="16" t="s">
+      <c r="G94" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="H94" s="25" t="s">
+      <c r="H94" s="21" t="s">
         <v>12</v>
       </c>
       <c r="I94" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="J94" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="16"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="22"/>
+      <c r="I95" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="J94" s="10" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="19"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="26"/>
-      <c r="D95" s="26"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="26"/>
-      <c r="I95" s="10" t="s">
-        <v>300</v>
-      </c>
       <c r="J95" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="19"/>
-      <c r="B96" s="21"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="26"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="26"/>
+      <c r="A96" s="16"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="22"/>
       <c r="I96" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J96" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="19"/>
-      <c r="B97" s="22"/>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="27"/>
+      <c r="A97" s="16"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="26"/>
+      <c r="G97" s="26"/>
+      <c r="H97" s="23"/>
       <c r="I97" s="11"/>
       <c r="J97" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="19">
+      <c r="A98" s="16">
         <v>25</v>
       </c>
-      <c r="B98" s="20" t="s">
+      <c r="B98" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C98" s="25" t="s">
+      <c r="C98" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D98" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="F98" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="G98" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="D98" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E98" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="F98" s="16" t="s">
-        <v>207</v>
-      </c>
-      <c r="G98" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="H98" s="25" t="s">
+      <c r="H98" s="21" t="s">
         <v>103</v>
       </c>
       <c r="I98" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="J98" s="10" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="16"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="J98" s="10" t="s">
+      <c r="J99" s="10" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="19"/>
-      <c r="B99" s="21"/>
-      <c r="C99" s="26"/>
-      <c r="D99" s="26"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="17"/>
-      <c r="G99" s="17"/>
-      <c r="H99" s="26"/>
-      <c r="I99" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="J99" s="10" t="s">
-        <v>305</v>
-      </c>
-    </row>
     <row r="100" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="19"/>
-      <c r="B100" s="21"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="26"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="17"/>
-      <c r="H100" s="26"/>
+      <c r="A100" s="16"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="25"/>
+      <c r="H100" s="22"/>
       <c r="I100" s="10" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="J100" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="19"/>
-      <c r="B101" s="22"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="18"/>
-      <c r="G101" s="18"/>
-      <c r="H101" s="27"/>
+      <c r="A101" s="16"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="26"/>
+      <c r="H101" s="23"/>
       <c r="I101" s="11"/>
       <c r="J101" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="19">
+      <c r="A102" s="16">
         <v>26</v>
       </c>
-      <c r="B102" s="20" t="s">
+      <c r="B102" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C102" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="D102" s="25" t="s">
+      <c r="C102" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="D102" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="E102" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="F102" s="16" t="s">
+      <c r="F102" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="G102" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="H102" s="25" t="s">
+      <c r="G102" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="H102" s="21" t="s">
         <v>103</v>
       </c>
       <c r="I102" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="J102" s="10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="16"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="22"/>
+      <c r="I103" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="J102" s="10" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="19"/>
-      <c r="B103" s="21"/>
-      <c r="C103" s="26"/>
-      <c r="D103" s="26"/>
-      <c r="E103" s="17"/>
-      <c r="F103" s="17"/>
-      <c r="G103" s="17"/>
-      <c r="H103" s="26"/>
-      <c r="I103" s="10" t="s">
+      <c r="J103" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="16"/>
+      <c r="B104" s="18"/>
+      <c r="C104" s="22"/>
+      <c r="D104" s="22"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="22"/>
+      <c r="I104" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="J103" s="10" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="19"/>
-      <c r="B104" s="21"/>
-      <c r="C104" s="26"/>
-      <c r="D104" s="26"/>
-      <c r="E104" s="17"/>
-      <c r="F104" s="17"/>
-      <c r="G104" s="17"/>
-      <c r="H104" s="26"/>
-      <c r="I104" s="10" t="s">
-        <v>308</v>
-      </c>
       <c r="J104" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="19"/>
-      <c r="B105" s="22"/>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="18"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="18"/>
-      <c r="H105" s="27"/>
+      <c r="A105" s="16"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="23"/>
+      <c r="D105" s="23"/>
+      <c r="E105" s="26"/>
+      <c r="F105" s="26"/>
+      <c r="G105" s="26"/>
+      <c r="H105" s="23"/>
       <c r="I105" s="11"/>
       <c r="J105" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="19">
+      <c r="A106" s="16">
         <v>27</v>
       </c>
-      <c r="B106" s="20" t="s">
+      <c r="B106" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="C106" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="D106" s="23" t="s">
+      <c r="C106" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="D106" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E106" s="24" t="s">
+      <c r="E106" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="F106" s="24" t="s">
+      <c r="F106" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="G106" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="H106" s="25" t="s">
+      <c r="G106" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="H106" s="21" t="s">
         <v>103</v>
       </c>
       <c r="I106" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="J106" s="10" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="16"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="20"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="20"/>
+      <c r="H107" s="22"/>
+      <c r="I107" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="J106" s="10" t="s">
+      <c r="J107" s="10" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="19"/>
-      <c r="B107" s="21"/>
-      <c r="C107" s="23"/>
-      <c r="D107" s="23"/>
-      <c r="E107" s="24"/>
-      <c r="F107" s="24"/>
-      <c r="G107" s="24"/>
-      <c r="H107" s="26"/>
-      <c r="I107" s="10" t="s">
+    <row r="108" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="16"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="20"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="20"/>
+      <c r="H108" s="22"/>
+      <c r="I108" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="J107" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="19"/>
-      <c r="B108" s="21"/>
-      <c r="C108" s="23"/>
-      <c r="D108" s="23"/>
-      <c r="E108" s="24"/>
-      <c r="F108" s="24"/>
-      <c r="G108" s="24"/>
-      <c r="H108" s="26"/>
-      <c r="I108" s="10" t="s">
-        <v>312</v>
-      </c>
       <c r="J108" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="19"/>
-      <c r="B109" s="22"/>
-      <c r="C109" s="23"/>
-      <c r="D109" s="23"/>
-      <c r="E109" s="24"/>
-      <c r="F109" s="24"/>
-      <c r="G109" s="24"/>
-      <c r="H109" s="27"/>
+      <c r="A109" s="16"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="20"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="20"/>
+      <c r="H109" s="23"/>
       <c r="I109" s="11"/>
       <c r="J109" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="19">
+      <c r="A110" s="16">
         <v>28</v>
       </c>
-      <c r="B110" s="20" t="s">
+      <c r="B110" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C110" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="D110" s="23" t="s">
+      <c r="C110" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D110" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E110" s="24" t="s">
+      <c r="E110" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="F110" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G110" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="F110" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="G110" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="H110" s="25" t="s">
+      <c r="H110" s="21" t="s">
         <v>103</v>
       </c>
       <c r="I110" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="J110" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="16"/>
+      <c r="B111" s="18"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="20"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="20"/>
+      <c r="H111" s="22"/>
+      <c r="I111" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="J110" s="10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="19"/>
-      <c r="B111" s="21"/>
-      <c r="C111" s="23"/>
-      <c r="D111" s="23"/>
-      <c r="E111" s="24"/>
-      <c r="F111" s="24"/>
-      <c r="G111" s="24"/>
-      <c r="H111" s="26"/>
-      <c r="I111" s="10" t="s">
+      <c r="J111" s="10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="16"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="20"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="20"/>
+      <c r="H112" s="22"/>
+      <c r="I112" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="J111" s="10" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="19"/>
-      <c r="B112" s="21"/>
-      <c r="C112" s="23"/>
-      <c r="D112" s="23"/>
-      <c r="E112" s="24"/>
-      <c r="F112" s="24"/>
-      <c r="G112" s="24"/>
-      <c r="H112" s="26"/>
-      <c r="I112" s="10" t="s">
-        <v>317</v>
-      </c>
       <c r="J112" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="19"/>
-      <c r="B113" s="22"/>
-      <c r="C113" s="23"/>
-      <c r="D113" s="23"/>
-      <c r="E113" s="24"/>
-      <c r="F113" s="24"/>
-      <c r="G113" s="24"/>
-      <c r="H113" s="27"/>
+      <c r="A113" s="16"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="20"/>
+      <c r="H113" s="23"/>
       <c r="I113" s="11"/>
       <c r="J113" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="19">
+      <c r="A114" s="16">
         <v>29</v>
       </c>
-      <c r="B114" s="20" t="s">
+      <c r="B114" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C114" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="D114" s="23" t="s">
+      <c r="C114" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D114" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E114" s="24" t="s">
+      <c r="E114" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="F114" s="24" t="s">
+      <c r="F114" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="G114" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="H114" s="25" t="s">
+      <c r="G114" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="H114" s="21" t="s">
         <v>103</v>
       </c>
       <c r="I114" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="J114" s="10" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="16"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="20"/>
+      <c r="F115" s="20"/>
+      <c r="G115" s="20"/>
+      <c r="H115" s="22"/>
+      <c r="I115" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="J114" s="10" t="s">
+      <c r="J115" s="10" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="19"/>
-      <c r="B115" s="21"/>
-      <c r="C115" s="23"/>
-      <c r="D115" s="23"/>
-      <c r="E115" s="24"/>
-      <c r="F115" s="24"/>
-      <c r="G115" s="24"/>
-      <c r="H115" s="26"/>
-      <c r="I115" s="10" t="s">
+    <row r="116" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="16"/>
+      <c r="B116" s="18"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="20"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="20"/>
+      <c r="H116" s="22"/>
+      <c r="I116" s="10" t="s">
         <v>320</v>
-      </c>
-      <c r="J115" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="19"/>
-      <c r="B116" s="21"/>
-      <c r="C116" s="23"/>
-      <c r="D116" s="23"/>
-      <c r="E116" s="24"/>
-      <c r="F116" s="24"/>
-      <c r="G116" s="24"/>
-      <c r="H116" s="26"/>
-      <c r="I116" s="10" t="s">
-        <v>321</v>
       </c>
       <c r="J116" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="19"/>
-      <c r="B117" s="22"/>
-      <c r="C117" s="23"/>
-      <c r="D117" s="23"/>
-      <c r="E117" s="24"/>
-      <c r="F117" s="24"/>
-      <c r="G117" s="24"/>
-      <c r="H117" s="27"/>
+      <c r="A117" s="16"/>
+      <c r="B117" s="19"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="20"/>
+      <c r="F117" s="20"/>
+      <c r="G117" s="20"/>
+      <c r="H117" s="23"/>
       <c r="I117" s="11"/>
       <c r="J117" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="19">
+      <c r="A118" s="16">
         <v>30</v>
       </c>
-      <c r="B118" s="20" t="s">
+      <c r="B118" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C118" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="D118" s="23" t="s">
+      <c r="C118" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D118" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E118" s="24" t="s">
+      <c r="E118" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="F118" s="24" t="s">
+      <c r="F118" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="G118" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="H118" s="25" t="s">
+      <c r="G118" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="H118" s="21" t="s">
         <v>103</v>
       </c>
       <c r="I118" s="10" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="J118" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="19"/>
-      <c r="B119" s="21"/>
-      <c r="C119" s="23"/>
-      <c r="D119" s="23"/>
-      <c r="E119" s="24"/>
-      <c r="F119" s="24"/>
-      <c r="G119" s="24"/>
-      <c r="H119" s="26"/>
+      <c r="A119" s="16"/>
+      <c r="B119" s="18"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="20"/>
+      <c r="F119" s="20"/>
+      <c r="G119" s="20"/>
+      <c r="H119" s="22"/>
       <c r="I119" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J119" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="19"/>
-      <c r="B120" s="21"/>
-      <c r="C120" s="23"/>
-      <c r="D120" s="23"/>
-      <c r="E120" s="24"/>
-      <c r="F120" s="24"/>
-      <c r="G120" s="24"/>
-      <c r="H120" s="26"/>
+      <c r="A120" s="16"/>
+      <c r="B120" s="18"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="20"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="20"/>
+      <c r="H120" s="22"/>
       <c r="I120" s="10" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="J120" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="19"/>
-      <c r="B121" s="22"/>
-      <c r="C121" s="23"/>
-      <c r="D121" s="23"/>
-      <c r="E121" s="24"/>
-      <c r="F121" s="24"/>
-      <c r="G121" s="24"/>
-      <c r="H121" s="27"/>
+      <c r="A121" s="16"/>
+      <c r="B121" s="19"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="20"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="20"/>
+      <c r="H121" s="23"/>
       <c r="I121" s="11"/>
       <c r="J121" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="19">
+      <c r="A122" s="16">
         <v>31</v>
       </c>
-      <c r="B122" s="20" t="s">
+      <c r="B122" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C122" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="D122" s="23" t="s">
+      <c r="C122" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D122" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E122" s="24" t="s">
+      <c r="E122" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="F122" s="24" t="s">
+      <c r="F122" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="G122" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="H122" s="25" t="s">
+      <c r="G122" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="H122" s="21" t="s">
         <v>103</v>
       </c>
       <c r="I122" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="J122" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="16"/>
+      <c r="B123" s="18"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="20"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="20"/>
+      <c r="H123" s="22"/>
+      <c r="I123" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="J122" s="10" t="s">
+      <c r="J123" s="10" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="19"/>
-      <c r="B123" s="21"/>
-      <c r="C123" s="23"/>
-      <c r="D123" s="23"/>
-      <c r="E123" s="24"/>
-      <c r="F123" s="24"/>
-      <c r="G123" s="24"/>
-      <c r="H123" s="26"/>
-      <c r="I123" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="J123" s="10" t="s">
-        <v>329</v>
-      </c>
-    </row>
     <row r="124" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="19"/>
-      <c r="B124" s="21"/>
-      <c r="C124" s="23"/>
-      <c r="D124" s="23"/>
-      <c r="E124" s="24"/>
-      <c r="F124" s="24"/>
-      <c r="G124" s="24"/>
-      <c r="H124" s="26"/>
+      <c r="A124" s="16"/>
+      <c r="B124" s="18"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="20"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="20"/>
+      <c r="H124" s="22"/>
       <c r="I124" s="10" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J124" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="19"/>
-      <c r="B125" s="22"/>
-      <c r="C125" s="23"/>
-      <c r="D125" s="23"/>
-      <c r="E125" s="24"/>
-      <c r="F125" s="24"/>
-      <c r="G125" s="24"/>
-      <c r="H125" s="27"/>
+      <c r="A125" s="16"/>
+      <c r="B125" s="19"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="20"/>
+      <c r="F125" s="20"/>
+      <c r="G125" s="20"/>
+      <c r="H125" s="23"/>
       <c r="I125" s="11"/>
       <c r="J125" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="19">
+      <c r="A126" s="16">
         <v>32</v>
       </c>
-      <c r="B126" s="20" t="s">
+      <c r="B126" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C126" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="D126" s="23" t="s">
+      <c r="C126" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D126" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E126" s="24" t="s">
+      <c r="E126" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="F126" s="24" t="s">
+      <c r="F126" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="G126" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="H126" s="25" t="s">
+      <c r="G126" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="H126" s="21" t="s">
         <v>103</v>
       </c>
       <c r="I126" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="J126" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="16"/>
+      <c r="B127" s="18"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="20"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="20"/>
+      <c r="H127" s="22"/>
+      <c r="I127" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="J126" s="10" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="19"/>
-      <c r="B127" s="21"/>
-      <c r="C127" s="23"/>
-      <c r="D127" s="23"/>
-      <c r="E127" s="24"/>
-      <c r="F127" s="24"/>
-      <c r="G127" s="24"/>
-      <c r="H127" s="26"/>
-      <c r="I127" s="10" t="s">
-        <v>331</v>
-      </c>
       <c r="J127" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="19"/>
-      <c r="B128" s="21"/>
-      <c r="C128" s="23"/>
-      <c r="D128" s="23"/>
-      <c r="E128" s="24"/>
-      <c r="F128" s="24"/>
-      <c r="G128" s="24"/>
-      <c r="H128" s="26"/>
+      <c r="A128" s="16"/>
+      <c r="B128" s="18"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="20"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="20"/>
+      <c r="H128" s="22"/>
       <c r="I128" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J128" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="19"/>
-      <c r="B129" s="22"/>
-      <c r="C129" s="23"/>
-      <c r="D129" s="23"/>
-      <c r="E129" s="24"/>
-      <c r="F129" s="24"/>
-      <c r="G129" s="24"/>
-      <c r="H129" s="27"/>
+      <c r="A129" s="16"/>
+      <c r="B129" s="19"/>
+      <c r="C129" s="15"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="20"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="20"/>
+      <c r="H129" s="23"/>
       <c r="I129" s="11"/>
       <c r="J129" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="19">
+      <c r="A130" s="16">
         <v>33</v>
       </c>
-      <c r="B130" s="20" t="s">
+      <c r="B130" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="C130" s="23" t="s">
-        <v>203</v>
-      </c>
-      <c r="D130" s="23" t="s">
+      <c r="C130" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D130" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E130" s="24" t="s">
+      <c r="E130" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="F130" s="24" t="s">
+      <c r="F130" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="G130" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="H130" s="25" t="s">
+      <c r="G130" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="H130" s="21" t="s">
         <v>103</v>
       </c>
       <c r="I130" s="10" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="J130" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="19"/>
-      <c r="B131" s="21"/>
-      <c r="C131" s="23"/>
-      <c r="D131" s="23"/>
-      <c r="E131" s="24"/>
-      <c r="F131" s="24"/>
-      <c r="G131" s="24"/>
-      <c r="H131" s="26"/>
+      <c r="A131" s="16"/>
+      <c r="B131" s="18"/>
+      <c r="C131" s="15"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="20"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="20"/>
+      <c r="H131" s="22"/>
       <c r="I131" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J131" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="19"/>
-      <c r="B132" s="21"/>
-      <c r="C132" s="23"/>
-      <c r="D132" s="23"/>
-      <c r="E132" s="24"/>
-      <c r="F132" s="24"/>
-      <c r="G132" s="24"/>
-      <c r="H132" s="26"/>
+      <c r="A132" s="16"/>
+      <c r="B132" s="18"/>
+      <c r="C132" s="15"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="20"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="20"/>
+      <c r="H132" s="22"/>
       <c r="I132" s="10" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="J132" s="10" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="19"/>
-      <c r="B133" s="22"/>
-      <c r="C133" s="23"/>
-      <c r="D133" s="23"/>
-      <c r="E133" s="24"/>
-      <c r="F133" s="24"/>
-      <c r="G133" s="24"/>
-      <c r="H133" s="27"/>
+      <c r="A133" s="16"/>
+      <c r="B133" s="19"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="20"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="20"/>
+      <c r="H133" s="23"/>
       <c r="I133" s="11"/>
       <c r="J133" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="19">
+      <c r="A134" s="16">
         <v>34</v>
       </c>
-      <c r="B134" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="C134" s="23" t="s">
-        <v>204</v>
-      </c>
-      <c r="D134" s="23" t="s">
+      <c r="B134" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C134" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D134" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E134" s="24" t="s">
+      <c r="E134" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="F134" s="24" t="s">
+      <c r="F134" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="G134" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="H134" s="25" t="s">
+      <c r="G134" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="H134" s="21" t="s">
         <v>103</v>
       </c>
       <c r="I134" s="10" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="J134" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="19"/>
-      <c r="B135" s="21"/>
-      <c r="C135" s="23"/>
-      <c r="D135" s="23"/>
-      <c r="E135" s="24"/>
-      <c r="F135" s="24"/>
-      <c r="G135" s="24"/>
-      <c r="H135" s="26"/>
+      <c r="A135" s="16"/>
+      <c r="B135" s="18"/>
+      <c r="C135" s="15"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="20"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="20"/>
+      <c r="H135" s="22"/>
       <c r="I135" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J135" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="19"/>
-      <c r="B136" s="21"/>
-      <c r="C136" s="23"/>
-      <c r="D136" s="23"/>
-      <c r="E136" s="24"/>
-      <c r="F136" s="24"/>
-      <c r="G136" s="24"/>
-      <c r="H136" s="26"/>
+      <c r="A136" s="16"/>
+      <c r="B136" s="18"/>
+      <c r="C136" s="15"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="20"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="20"/>
+      <c r="H136" s="22"/>
       <c r="I136" s="10" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J136" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="19"/>
-      <c r="B137" s="22"/>
-      <c r="C137" s="23"/>
-      <c r="D137" s="23"/>
-      <c r="E137" s="24"/>
-      <c r="F137" s="24"/>
-      <c r="G137" s="24"/>
-      <c r="H137" s="27"/>
+      <c r="A137" s="16"/>
+      <c r="B137" s="19"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="20"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="20"/>
+      <c r="H137" s="23"/>
       <c r="I137" s="11"/>
       <c r="J137" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="19">
+      <c r="A138" s="16">
         <v>35</v>
       </c>
-      <c r="B138" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="C138" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="D138" s="23" t="s">
+      <c r="B138" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="C138" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="D138" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E138" s="31" t="s">
+      <c r="E138" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="F138" s="16" t="s">
+      <c r="F138" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="G138" s="24" t="s">
         <v>338</v>
       </c>
-      <c r="G138" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="H138" s="23" t="s">
-        <v>103</v>
+      <c r="H138" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="I138" s="10" t="s">
-        <v>340</v>
+        <v>363</v>
       </c>
       <c r="J138" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="19"/>
-      <c r="B139" s="21"/>
-      <c r="C139" s="26"/>
-      <c r="D139" s="23"/>
-      <c r="E139" s="31"/>
-      <c r="F139" s="17"/>
-      <c r="G139" s="17"/>
-      <c r="H139" s="23"/>
+      <c r="A139" s="16"/>
+      <c r="B139" s="18"/>
+      <c r="C139" s="22"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="20"/>
+      <c r="F139" s="25"/>
+      <c r="G139" s="25"/>
+      <c r="H139" s="15"/>
       <c r="I139" s="10" t="s">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="J139" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="19"/>
-      <c r="B140" s="21"/>
-      <c r="C140" s="26"/>
-      <c r="D140" s="23"/>
-      <c r="E140" s="31"/>
-      <c r="F140" s="17"/>
-      <c r="G140" s="17"/>
-      <c r="H140" s="23"/>
-      <c r="I140" s="10"/>
+      <c r="A140" s="16"/>
+      <c r="B140" s="18"/>
+      <c r="C140" s="22"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="20"/>
+      <c r="F140" s="25"/>
+      <c r="G140" s="25"/>
+      <c r="H140" s="15"/>
+      <c r="I140" s="10" t="s">
+        <v>365</v>
+      </c>
       <c r="J140" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="19"/>
-      <c r="B141" s="22"/>
-      <c r="C141" s="27"/>
-      <c r="D141" s="23"/>
-      <c r="E141" s="31"/>
-      <c r="F141" s="18"/>
-      <c r="G141" s="18"/>
-      <c r="H141" s="23"/>
+      <c r="A141" s="16"/>
+      <c r="B141" s="19"/>
+      <c r="C141" s="23"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="20"/>
+      <c r="F141" s="26"/>
+      <c r="G141" s="26"/>
+      <c r="H141" s="15"/>
       <c r="I141" s="11"/>
       <c r="J141" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E142" s="15"/>
+      <c r="E142" s="30"/>
     </row>
     <row r="143" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E143" s="15"/>
-      <c r="F143" s="16"/>
+      <c r="E143" s="30"/>
+      <c r="F143" s="24"/>
     </row>
     <row r="144" spans="1:10" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E144" s="15"/>
-      <c r="F144" s="17"/>
+      <c r="E144" s="30"/>
+      <c r="F144" s="25"/>
     </row>
     <row r="145" spans="5:6" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E145" s="15"/>
-      <c r="F145" s="17"/>
+      <c r="E145" s="30"/>
+      <c r="F145" s="25"/>
     </row>
     <row r="146" spans="5:6" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F146" s="18"/>
+      <c r="F146" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="282">
-    <mergeCell ref="H138:H141"/>
-    <mergeCell ref="A130:A133"/>
-    <mergeCell ref="B130:B133"/>
-    <mergeCell ref="C130:C133"/>
-    <mergeCell ref="D130:D133"/>
-    <mergeCell ref="E130:E133"/>
-    <mergeCell ref="F130:F133"/>
-    <mergeCell ref="G130:G133"/>
-    <mergeCell ref="H130:H133"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="D134:D137"/>
-    <mergeCell ref="E134:E137"/>
-    <mergeCell ref="F134:F137"/>
-    <mergeCell ref="G134:G137"/>
-    <mergeCell ref="H134:H137"/>
-    <mergeCell ref="H122:H125"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="C126:C129"/>
-    <mergeCell ref="D126:D129"/>
-    <mergeCell ref="E126:E129"/>
-    <mergeCell ref="F126:F129"/>
-    <mergeCell ref="G126:G129"/>
-    <mergeCell ref="H126:H129"/>
+    <mergeCell ref="E142:E145"/>
+    <mergeCell ref="F143:F146"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="B118:B121"/>
+    <mergeCell ref="C118:C121"/>
+    <mergeCell ref="D118:D121"/>
+    <mergeCell ref="E118:E121"/>
+    <mergeCell ref="F118:F121"/>
+    <mergeCell ref="G118:G121"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="B122:B125"/>
+    <mergeCell ref="C122:C125"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="E122:E125"/>
+    <mergeCell ref="F122:F125"/>
+    <mergeCell ref="G122:G125"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="D138:D141"/>
+    <mergeCell ref="E138:E141"/>
+    <mergeCell ref="F138:F141"/>
+    <mergeCell ref="G138:G141"/>
+    <mergeCell ref="H118:H121"/>
+    <mergeCell ref="A110:A113"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="D110:D113"/>
+    <mergeCell ref="E110:E113"/>
+    <mergeCell ref="F110:F113"/>
+    <mergeCell ref="G110:G113"/>
+    <mergeCell ref="H110:H113"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="B114:B117"/>
+    <mergeCell ref="C114:C117"/>
+    <mergeCell ref="D114:D117"/>
+    <mergeCell ref="E114:E117"/>
+    <mergeCell ref="F114:F117"/>
+    <mergeCell ref="G114:G117"/>
+    <mergeCell ref="H114:H117"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="D106:D109"/>
+    <mergeCell ref="E106:E109"/>
+    <mergeCell ref="F106:F109"/>
+    <mergeCell ref="G106:G109"/>
+    <mergeCell ref="H106:H109"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="F22:F25"/>
+    <mergeCell ref="G22:G25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="B26:B29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D26:D29"/>
+    <mergeCell ref="E26:E29"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="G26:G29"/>
+    <mergeCell ref="H26:H29"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="D34:D37"/>
+    <mergeCell ref="E34:E37"/>
+    <mergeCell ref="F34:F37"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="H34:H37"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="D30:D33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="H38:H41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="D42:D45"/>
+    <mergeCell ref="E42:E45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="D38:D41"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="E50:E53"/>
+    <mergeCell ref="F50:F53"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="D46:D49"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="C58:C61"/>
+    <mergeCell ref="D58:D61"/>
+    <mergeCell ref="E58:E61"/>
+    <mergeCell ref="F58:F61"/>
+    <mergeCell ref="G58:G61"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="A54:A57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="G62:G65"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="D66:D69"/>
+    <mergeCell ref="E66:E69"/>
+    <mergeCell ref="F66:F69"/>
+    <mergeCell ref="G66:G69"/>
+    <mergeCell ref="H66:H69"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="C62:C65"/>
+    <mergeCell ref="D62:D65"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="F70:F73"/>
+    <mergeCell ref="G70:G73"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="F74:F77"/>
+    <mergeCell ref="G74:G77"/>
+    <mergeCell ref="H74:H77"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="D70:D73"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="F78:F81"/>
+    <mergeCell ref="G78:G81"/>
+    <mergeCell ref="H78:H81"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="C82:C85"/>
+    <mergeCell ref="D82:D85"/>
+    <mergeCell ref="E82:E85"/>
+    <mergeCell ref="F82:F85"/>
+    <mergeCell ref="G82:G85"/>
+    <mergeCell ref="H82:H85"/>
+    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="F86:F89"/>
+    <mergeCell ref="G86:G89"/>
+    <mergeCell ref="H86:H89"/>
+    <mergeCell ref="A90:A93"/>
+    <mergeCell ref="B90:B93"/>
+    <mergeCell ref="C90:C93"/>
+    <mergeCell ref="D90:D93"/>
+    <mergeCell ref="E90:E93"/>
+    <mergeCell ref="F90:F93"/>
+    <mergeCell ref="G90:G93"/>
+    <mergeCell ref="H90:H93"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="C86:C89"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="E86:E89"/>
     <mergeCell ref="F102:F105"/>
     <mergeCell ref="G102:G105"/>
     <mergeCell ref="H102:H105"/>
@@ -5577,238 +5774,32 @@
     <mergeCell ref="C94:C97"/>
     <mergeCell ref="D94:D97"/>
     <mergeCell ref="E94:E97"/>
-    <mergeCell ref="F86:F89"/>
-    <mergeCell ref="G86:G89"/>
-    <mergeCell ref="H86:H89"/>
-    <mergeCell ref="A90:A93"/>
-    <mergeCell ref="B90:B93"/>
-    <mergeCell ref="C90:C93"/>
-    <mergeCell ref="D90:D93"/>
-    <mergeCell ref="E90:E93"/>
-    <mergeCell ref="F90:F93"/>
-    <mergeCell ref="G90:G93"/>
-    <mergeCell ref="H90:H93"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="C86:C89"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="E86:E89"/>
-    <mergeCell ref="F78:F81"/>
-    <mergeCell ref="G78:G81"/>
-    <mergeCell ref="H78:H81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="C82:C85"/>
-    <mergeCell ref="D82:D85"/>
-    <mergeCell ref="E82:E85"/>
-    <mergeCell ref="F82:F85"/>
-    <mergeCell ref="G82:G85"/>
-    <mergeCell ref="H82:H85"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="F70:F73"/>
-    <mergeCell ref="G70:G73"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="A74:A77"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="F74:F77"/>
-    <mergeCell ref="G74:G77"/>
-    <mergeCell ref="H74:H77"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="D70:D73"/>
-    <mergeCell ref="E70:E73"/>
-    <mergeCell ref="F62:F65"/>
-    <mergeCell ref="G62:G65"/>
-    <mergeCell ref="H62:H65"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="D66:D69"/>
-    <mergeCell ref="E66:E69"/>
-    <mergeCell ref="F66:F69"/>
-    <mergeCell ref="G66:G69"/>
-    <mergeCell ref="H66:H69"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="C62:C65"/>
-    <mergeCell ref="D62:D65"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="C58:C61"/>
-    <mergeCell ref="D58:D61"/>
-    <mergeCell ref="E58:E61"/>
-    <mergeCell ref="F58:F61"/>
-    <mergeCell ref="G58:G61"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="A54:A57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="F46:F49"/>
-    <mergeCell ref="G46:G49"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="E50:E53"/>
-    <mergeCell ref="F50:F53"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="D46:D49"/>
-    <mergeCell ref="E46:E49"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="G38:G41"/>
-    <mergeCell ref="H38:H41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="D42:D45"/>
-    <mergeCell ref="E42:E45"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="D38:D41"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="E34:E37"/>
-    <mergeCell ref="F34:F37"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="H34:H37"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="D30:D33"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="D106:D109"/>
-    <mergeCell ref="E106:E109"/>
-    <mergeCell ref="F106:F109"/>
-    <mergeCell ref="G106:G109"/>
-    <mergeCell ref="H106:H109"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="F22:F25"/>
-    <mergeCell ref="G22:G25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="A26:A29"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D26:D29"/>
-    <mergeCell ref="E26:E29"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="G26:G29"/>
-    <mergeCell ref="H26:H29"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="H118:H121"/>
-    <mergeCell ref="A110:A113"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="D110:D113"/>
-    <mergeCell ref="E110:E113"/>
-    <mergeCell ref="F110:F113"/>
-    <mergeCell ref="G110:G113"/>
-    <mergeCell ref="H110:H113"/>
-    <mergeCell ref="A114:A117"/>
-    <mergeCell ref="B114:B117"/>
-    <mergeCell ref="C114:C117"/>
-    <mergeCell ref="D114:D117"/>
-    <mergeCell ref="E114:E117"/>
-    <mergeCell ref="F114:F117"/>
-    <mergeCell ref="G114:G117"/>
-    <mergeCell ref="H114:H117"/>
-    <mergeCell ref="E142:E145"/>
-    <mergeCell ref="F143:F146"/>
-    <mergeCell ref="A118:A121"/>
-    <mergeCell ref="B118:B121"/>
-    <mergeCell ref="C118:C121"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="E118:E121"/>
-    <mergeCell ref="F118:F121"/>
-    <mergeCell ref="G118:G121"/>
-    <mergeCell ref="A122:A125"/>
-    <mergeCell ref="B122:B125"/>
-    <mergeCell ref="C122:C125"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="E122:E125"/>
-    <mergeCell ref="F122:F125"/>
-    <mergeCell ref="G122:G125"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="D138:D141"/>
-    <mergeCell ref="E138:E141"/>
-    <mergeCell ref="F138:F141"/>
-    <mergeCell ref="G138:G141"/>
+    <mergeCell ref="H122:H125"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="C126:C129"/>
+    <mergeCell ref="D126:D129"/>
+    <mergeCell ref="E126:E129"/>
+    <mergeCell ref="F126:F129"/>
+    <mergeCell ref="G126:G129"/>
+    <mergeCell ref="H126:H129"/>
+    <mergeCell ref="H138:H141"/>
+    <mergeCell ref="A130:A133"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="C130:C133"/>
+    <mergeCell ref="D130:D133"/>
+    <mergeCell ref="E130:E133"/>
+    <mergeCell ref="F130:F133"/>
+    <mergeCell ref="G130:G133"/>
+    <mergeCell ref="H130:H133"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="D134:D137"/>
+    <mergeCell ref="E134:E137"/>
+    <mergeCell ref="F134:F137"/>
+    <mergeCell ref="G134:G137"/>
+    <mergeCell ref="H134:H137"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
